--- a/SEPT_Documents/Sprint_0/ProductBacklog-0.xlsx
+++ b/SEPT_Documents/Sprint_0/ProductBacklog-0.xlsx
@@ -1,16 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darrick\Desktop\CS\Courses\Year2\Sem2\SEPT\A1\M1_Submission_Folder\SEPT_Documents\Sprint_0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E8DCEF-DA66-4730-8260-2602409F412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Product Backlog" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Calculations" sheetId="2" r:id="rId5"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculations" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="SelectedYear">#REF!</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miHfC2zMPCow6Lo/vdeQgp5zLAdSA=="/>
     </ext>
@@ -87,9 +105,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>Patient manages his notifications</t>
-  </si>
-  <si>
     <t>MEDIUM</t>
   </si>
   <si>
@@ -128,73 +143,78 @@
   <si>
     <t>All Metrics (works up to 25 metrics)</t>
   </si>
+  <si>
+    <t>Patient/Doctor manages his notifications</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF595959"/>
-      <name val="Euphemia"/>
+      <name val="euphemia"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="Euphemia"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Euphemia"/>
+      <name val="euphemia"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="4"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF3A8D50"/>
       <name val="Libre Franklin"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFA5A5A5"/>
       <name val="Euphemia"/>
     </font>
@@ -204,7 +224,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -220,7 +240,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -230,140 +256,137 @@
       <bottom style="thin">
         <color rgb="FFD8D8D8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFD8D8D8"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FFA5A5A5"/>
       </top>
       <bottom style="medium">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF2F2F2"/>
@@ -380,19 +403,20 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -582,37 +606,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF97D4A7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z968"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="1.71"/>
-    <col customWidth="1" min="2" max="2" width="7.14"/>
-    <col customWidth="1" min="3" max="3" width="51.29"/>
-    <col customWidth="1" min="4" max="4" width="24.29"/>
-    <col customWidth="1" min="5" max="5" width="9.14"/>
-    <col customWidth="1" min="6" max="6" width="10.14"/>
-    <col customWidth="1" min="7" max="7" width="20.29"/>
-    <col customWidth="1" min="8" max="8" width="31.86"/>
-    <col customWidth="1" min="9" max="9" width="68.0"/>
-    <col customWidth="1" min="10" max="26" width="8.86"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.88671875" customWidth="1"/>
+    <col min="9" max="9" width="68" customWidth="1"/>
+    <col min="10" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="8.25" customHeight="1">
+    <row r="1" spans="1:26" ht="8.25" customHeight="1">
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="38.25" customHeight="1">
+    <row r="2" spans="1:26" ht="38.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -625,7 +654,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="6.0" customHeight="1">
+    <row r="3" spans="1:26" ht="6" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="8"/>
@@ -636,7 +665,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="25.5" customHeight="1">
+    <row r="4" spans="1:26" ht="25.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>1</v>
@@ -663,10 +692,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:26" ht="41.4">
       <c r="A5" s="13"/>
       <c r="B5" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>9</v>
@@ -705,10 +734,10 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>15</v>
@@ -745,10 +774,10 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="20">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
@@ -785,10 +814,10 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>19</v>
@@ -825,10 +854,10 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>20</v>
@@ -865,22 +894,22 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>13</v>
@@ -905,22 +934,22 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="20">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>13</v>
@@ -945,22 +974,22 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>29</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>13</v>
@@ -985,7 +1014,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="20"/>
       <c r="C13" s="3"/>
@@ -996,3823 +1025,3823 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="B14" s="1"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="B15" s="1"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="B16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="2:6" ht="12.75" customHeight="1">
       <c r="B17" s="1"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="2:6" ht="12.75" customHeight="1">
       <c r="B18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="2:6" ht="12.75" customHeight="1">
       <c r="B19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="2:6" ht="12.75" customHeight="1">
       <c r="B20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="2:6" ht="12.75" customHeight="1">
       <c r="B21" s="1"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="2:6" ht="12.75" customHeight="1">
       <c r="B22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="2:6" ht="12.75" customHeight="1">
       <c r="B23" s="1"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="2:6" ht="12.75" customHeight="1">
       <c r="B24" s="1"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="2:6" ht="12.75" customHeight="1">
       <c r="B25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="2:6" ht="12.75" customHeight="1">
       <c r="B26" s="1"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="2:6" ht="12.75" customHeight="1">
       <c r="B27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="2:6" ht="12.75" customHeight="1">
       <c r="B28" s="1"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="2:6" ht="12.75" customHeight="1">
       <c r="B29" s="1"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="2:6" ht="12.75" customHeight="1">
       <c r="B30" s="1"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="2:6" ht="12.75" customHeight="1">
       <c r="B31" s="1"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="2:6" ht="12.75" customHeight="1">
       <c r="B32" s="1"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="2:6" ht="12.75" customHeight="1">
       <c r="B33" s="1"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="2:6" ht="12.75" customHeight="1">
       <c r="B34" s="1"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="2:6" ht="12.75" customHeight="1">
       <c r="B35" s="1"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="2:6" ht="12.75" customHeight="1">
       <c r="B36" s="1"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="2:6" ht="12.75" customHeight="1">
       <c r="B37" s="1"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="2:6" ht="12.75" customHeight="1">
       <c r="B38" s="1"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="2:6" ht="12.75" customHeight="1">
       <c r="B39" s="1"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="2:6" ht="12.75" customHeight="1">
       <c r="B40" s="1"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="2:6" ht="12.75" customHeight="1">
       <c r="B41" s="1"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="2:6" ht="12.75" customHeight="1">
       <c r="B42" s="1"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="2:6" ht="12.75" customHeight="1">
       <c r="B43" s="1"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="2:6" ht="12.75" customHeight="1">
       <c r="B44" s="1"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="2:6" ht="12.75" customHeight="1">
       <c r="B45" s="1"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="2:6" ht="12.75" customHeight="1">
       <c r="B46" s="1"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="2:6" ht="12.75" customHeight="1">
       <c r="B47" s="1"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="2:6" ht="12.75" customHeight="1">
       <c r="B48" s="1"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="2:6" ht="12.75" customHeight="1">
       <c r="B49" s="1"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="2:6" ht="12.75" customHeight="1">
       <c r="B50" s="1"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="2:6" ht="12.75" customHeight="1">
       <c r="B51" s="1"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="2:6" ht="12.75" customHeight="1">
       <c r="B52" s="1"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="2:6" ht="12.75" customHeight="1">
       <c r="B53" s="1"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="2:6" ht="12.75" customHeight="1">
       <c r="B54" s="1"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="2:6" ht="12.75" customHeight="1">
       <c r="B55" s="1"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="2:6" ht="12.75" customHeight="1">
       <c r="B56" s="1"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="2:6" ht="12.75" customHeight="1">
       <c r="B57" s="1"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="2:6" ht="12.75" customHeight="1">
       <c r="B58" s="1"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="2:6" ht="12.75" customHeight="1">
       <c r="B59" s="1"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="2:6" ht="12.75" customHeight="1">
       <c r="B60" s="1"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="2:6" ht="12.75" customHeight="1">
       <c r="B61" s="1"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="2:6" ht="12.75" customHeight="1">
       <c r="B62" s="1"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="2:6" ht="12.75" customHeight="1">
       <c r="B63" s="1"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="2:6" ht="12.75" customHeight="1">
       <c r="B64" s="1"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="2:6" ht="12.75" customHeight="1">
       <c r="B65" s="1"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="2:6" ht="12.75" customHeight="1">
       <c r="B66" s="1"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="2:6" ht="12.75" customHeight="1">
       <c r="B67" s="1"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="2:6" ht="12.75" customHeight="1">
       <c r="B68" s="1"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="2:6" ht="12.75" customHeight="1">
       <c r="B69" s="1"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="2:6" ht="12.75" customHeight="1">
       <c r="B70" s="1"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="2:6" ht="12.75" customHeight="1">
       <c r="B71" s="1"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="2:6" ht="12.75" customHeight="1">
       <c r="B72" s="1"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="2:6" ht="12.75" customHeight="1">
       <c r="B73" s="1"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="2:6" ht="12.75" customHeight="1">
       <c r="B74" s="1"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="2:6" ht="12.75" customHeight="1">
       <c r="B75" s="1"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="2:6" ht="12.75" customHeight="1">
       <c r="B76" s="1"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="2:6" ht="12.75" customHeight="1">
       <c r="B77" s="1"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="2:6" ht="12.75" customHeight="1">
       <c r="B78" s="1"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="2:6" ht="12.75" customHeight="1">
       <c r="B79" s="1"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="2:6" ht="12.75" customHeight="1">
       <c r="B80" s="1"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="2:6" ht="12.75" customHeight="1">
       <c r="B81" s="1"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="2:6" ht="12.75" customHeight="1">
       <c r="B82" s="1"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="2:6" ht="12.75" customHeight="1">
       <c r="B83" s="1"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="2:6" ht="12.75" customHeight="1">
       <c r="B84" s="1"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="2:6" ht="12.75" customHeight="1">
       <c r="B85" s="1"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="2:6" ht="12.75" customHeight="1">
       <c r="B86" s="1"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="2:6" ht="12.75" customHeight="1">
       <c r="B87" s="1"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="2:6" ht="12.75" customHeight="1">
       <c r="B88" s="1"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="2:6" ht="12.75" customHeight="1">
       <c r="B89" s="1"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="2:6" ht="12.75" customHeight="1">
       <c r="B90" s="1"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="2:6" ht="12.75" customHeight="1">
       <c r="B91" s="1"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="2:6" ht="12.75" customHeight="1">
       <c r="B92" s="1"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="2:6" ht="12.75" customHeight="1">
       <c r="B93" s="1"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="2:6" ht="12.75" customHeight="1">
       <c r="B94" s="1"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="2:6" ht="12.75" customHeight="1">
       <c r="B95" s="1"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="2:6" ht="12.75" customHeight="1">
       <c r="B96" s="1"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="2:6" ht="12.75" customHeight="1">
       <c r="B97" s="1"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="2:6" ht="12.75" customHeight="1">
       <c r="B98" s="1"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="2:6" ht="12.75" customHeight="1">
       <c r="B99" s="1"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="2:6" ht="12.75" customHeight="1">
       <c r="B100" s="1"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="2:6" ht="12.75" customHeight="1">
       <c r="B101" s="1"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="2:6" ht="12.75" customHeight="1">
       <c r="B102" s="1"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="2:6" ht="12.75" customHeight="1">
       <c r="B103" s="1"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="2:6" ht="12.75" customHeight="1">
       <c r="B104" s="1"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="2:6" ht="12.75" customHeight="1">
       <c r="B105" s="1"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="2:6" ht="12.75" customHeight="1">
       <c r="B106" s="1"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="2:6" ht="12.75" customHeight="1">
       <c r="B107" s="1"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="2:6" ht="12.75" customHeight="1">
       <c r="B108" s="1"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="2:6" ht="12.75" customHeight="1">
       <c r="B109" s="1"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="2:6" ht="12.75" customHeight="1">
       <c r="B110" s="1"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="2:6" ht="12.75" customHeight="1">
       <c r="B111" s="1"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="2:6" ht="12.75" customHeight="1">
       <c r="B112" s="1"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="2:6" ht="12.75" customHeight="1">
       <c r="B113" s="1"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="2:6" ht="12.75" customHeight="1">
       <c r="B114" s="1"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="2:6" ht="12.75" customHeight="1">
       <c r="B115" s="1"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="2:6" ht="12.75" customHeight="1">
       <c r="B116" s="1"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="2:6" ht="12.75" customHeight="1">
       <c r="B117" s="1"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="2:6" ht="12.75" customHeight="1">
       <c r="B118" s="1"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="2:6" ht="12.75" customHeight="1">
       <c r="B119" s="1"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="2:6" ht="12.75" customHeight="1">
       <c r="B120" s="1"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="2:6" ht="12.75" customHeight="1">
       <c r="B121" s="1"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="2:6" ht="12.75" customHeight="1">
       <c r="B122" s="1"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="2:6" ht="12.75" customHeight="1">
       <c r="B123" s="1"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="2:6" ht="12.75" customHeight="1">
       <c r="B124" s="1"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="2:6" ht="12.75" customHeight="1">
       <c r="B125" s="1"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="2:6" ht="12.75" customHeight="1">
       <c r="B126" s="1"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="2:6" ht="12.75" customHeight="1">
       <c r="B127" s="1"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="2:6" ht="12.75" customHeight="1">
       <c r="B128" s="1"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="2:6" ht="12.75" customHeight="1">
       <c r="B129" s="1"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="2:6" ht="12.75" customHeight="1">
       <c r="B130" s="1"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="2:6" ht="12.75" customHeight="1">
       <c r="B131" s="1"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="2:6" ht="12.75" customHeight="1">
       <c r="B132" s="1"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="2:6" ht="12.75" customHeight="1">
       <c r="B133" s="1"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="2:6" ht="12.75" customHeight="1">
       <c r="B134" s="1"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="2:6" ht="12.75" customHeight="1">
       <c r="B135" s="1"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="2:6" ht="12.75" customHeight="1">
       <c r="B136" s="1"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="2:6" ht="12.75" customHeight="1">
       <c r="B137" s="1"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="2:6" ht="12.75" customHeight="1">
       <c r="B138" s="1"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="2:6" ht="12.75" customHeight="1">
       <c r="B139" s="1"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="2:6" ht="12.75" customHeight="1">
       <c r="B140" s="1"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="2:6" ht="12.75" customHeight="1">
       <c r="B141" s="1"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="2:6" ht="12.75" customHeight="1">
       <c r="B142" s="1"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="2:6" ht="12.75" customHeight="1">
       <c r="B143" s="1"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="2:6" ht="12.75" customHeight="1">
       <c r="B144" s="1"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="2:6" ht="12.75" customHeight="1">
       <c r="B145" s="1"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="2:6" ht="12.75" customHeight="1">
       <c r="B146" s="1"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="2:6" ht="12.75" customHeight="1">
       <c r="B147" s="1"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="2:6" ht="12.75" customHeight="1">
       <c r="B148" s="1"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="2:6" ht="12.75" customHeight="1">
       <c r="B149" s="1"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="2:6" ht="12.75" customHeight="1">
       <c r="B150" s="1"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="2:6" ht="12.75" customHeight="1">
       <c r="B151" s="1"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="2:6" ht="12.75" customHeight="1">
       <c r="B152" s="1"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="2:6" ht="12.75" customHeight="1">
       <c r="B153" s="1"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="2:6" ht="12.75" customHeight="1">
       <c r="B154" s="1"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="2:6" ht="12.75" customHeight="1">
       <c r="B155" s="1"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="2:6" ht="12.75" customHeight="1">
       <c r="B156" s="1"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="2:6" ht="12.75" customHeight="1">
       <c r="B157" s="1"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="2:6" ht="12.75" customHeight="1">
       <c r="B158" s="1"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="2:6" ht="12.75" customHeight="1">
       <c r="B159" s="1"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="2:6" ht="12.75" customHeight="1">
       <c r="B160" s="1"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="2:6" ht="12.75" customHeight="1">
       <c r="B161" s="1"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="2:6" ht="12.75" customHeight="1">
       <c r="B162" s="1"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="2:6" ht="12.75" customHeight="1">
       <c r="B163" s="1"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="2:6" ht="12.75" customHeight="1">
       <c r="B164" s="1"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="2:6" ht="12.75" customHeight="1">
       <c r="B165" s="1"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="2:6" ht="12.75" customHeight="1">
       <c r="B166" s="1"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="2:6" ht="12.75" customHeight="1">
       <c r="B167" s="1"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="2:6" ht="12.75" customHeight="1">
       <c r="B168" s="1"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="2:6" ht="12.75" customHeight="1">
       <c r="B169" s="1"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="2:6" ht="12.75" customHeight="1">
       <c r="B170" s="1"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="2:6" ht="12.75" customHeight="1">
       <c r="B171" s="1"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="2:6" ht="12.75" customHeight="1">
       <c r="B172" s="1"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="2:6" ht="12.75" customHeight="1">
       <c r="B173" s="1"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="2:6" ht="12.75" customHeight="1">
       <c r="B174" s="1"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="2:6" ht="12.75" customHeight="1">
       <c r="B175" s="1"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="2:6" ht="12.75" customHeight="1">
       <c r="B176" s="1"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="2:6" ht="12.75" customHeight="1">
       <c r="B177" s="1"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="2:6" ht="12.75" customHeight="1">
       <c r="B178" s="1"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="2:6" ht="12.75" customHeight="1">
       <c r="B179" s="1"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="2:6" ht="12.75" customHeight="1">
       <c r="B180" s="1"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="2:6" ht="12.75" customHeight="1">
       <c r="B181" s="1"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="2:6" ht="12.75" customHeight="1">
       <c r="B182" s="1"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="2:6" ht="12.75" customHeight="1">
       <c r="B183" s="1"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="2:6" ht="12.75" customHeight="1">
       <c r="B184" s="1"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="2:6" ht="12.75" customHeight="1">
       <c r="B185" s="1"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="2:6" ht="12.75" customHeight="1">
       <c r="B186" s="1"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="2:6" ht="12.75" customHeight="1">
       <c r="B187" s="1"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="2:6" ht="12.75" customHeight="1">
       <c r="B188" s="1"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="2:6" ht="12.75" customHeight="1">
       <c r="B189" s="1"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="2:6" ht="12.75" customHeight="1">
       <c r="B190" s="1"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="2:6" ht="12.75" customHeight="1">
       <c r="B191" s="1"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="2:6" ht="12.75" customHeight="1">
       <c r="B192" s="1"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="2:6" ht="12.75" customHeight="1">
       <c r="B193" s="1"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="2:6" ht="12.75" customHeight="1">
       <c r="B194" s="1"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="2:6" ht="12.75" customHeight="1">
       <c r="B195" s="1"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="2:6" ht="12.75" customHeight="1">
       <c r="B196" s="1"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="2:6" ht="12.75" customHeight="1">
       <c r="B197" s="1"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="2:6" ht="12.75" customHeight="1">
       <c r="B198" s="1"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="2:6" ht="12.75" customHeight="1">
       <c r="B199" s="1"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="2:6" ht="12.75" customHeight="1">
       <c r="B200" s="1"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="2:6" ht="12.75" customHeight="1">
       <c r="B201" s="1"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="2:6" ht="12.75" customHeight="1">
       <c r="B202" s="1"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="2:6" ht="12.75" customHeight="1">
       <c r="B203" s="1"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="2:6" ht="12.75" customHeight="1">
       <c r="B204" s="1"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="2:6" ht="12.75" customHeight="1">
       <c r="B205" s="1"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="2:6" ht="12.75" customHeight="1">
       <c r="B206" s="1"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="2:6" ht="12.75" customHeight="1">
       <c r="B207" s="1"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="2:6" ht="12.75" customHeight="1">
       <c r="B208" s="1"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="2:6" ht="12.75" customHeight="1">
       <c r="B209" s="1"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="2:6" ht="12.75" customHeight="1">
       <c r="B210" s="1"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="2:6" ht="12.75" customHeight="1">
       <c r="B211" s="1"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="2:6" ht="12.75" customHeight="1">
       <c r="B212" s="1"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="2:6" ht="12.75" customHeight="1">
       <c r="B213" s="1"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="2:6" ht="12.75" customHeight="1">
       <c r="B214" s="1"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="2:6" ht="12.75" customHeight="1">
       <c r="B215" s="1"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="2:6" ht="12.75" customHeight="1">
       <c r="B216" s="1"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="2:6" ht="12.75" customHeight="1">
       <c r="B217" s="1"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="2:6" ht="12.75" customHeight="1">
       <c r="B218" s="1"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="2:6" ht="12.75" customHeight="1">
       <c r="B219" s="1"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="2:6" ht="12.75" customHeight="1">
       <c r="B220" s="1"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" spans="2:6" ht="12.75" customHeight="1">
       <c r="B221" s="1"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" spans="2:6" ht="12.75" customHeight="1">
       <c r="B222" s="1"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" spans="2:6" ht="12.75" customHeight="1">
       <c r="B223" s="1"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" spans="2:6" ht="12.75" customHeight="1">
       <c r="B224" s="1"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" spans="2:6" ht="12.75" customHeight="1">
       <c r="B225" s="1"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" spans="2:6" ht="12.75" customHeight="1">
       <c r="B226" s="1"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" spans="2:6" ht="12.75" customHeight="1">
       <c r="B227" s="1"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" spans="2:6" ht="12.75" customHeight="1">
       <c r="B228" s="1"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" spans="2:6" ht="12.75" customHeight="1">
       <c r="B229" s="1"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" spans="2:6" ht="12.75" customHeight="1">
       <c r="B230" s="1"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" spans="2:6" ht="12.75" customHeight="1">
       <c r="B231" s="1"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" spans="2:6" ht="12.75" customHeight="1">
       <c r="B232" s="1"/>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" spans="2:6" ht="12.75" customHeight="1">
       <c r="B233" s="1"/>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" spans="2:6" ht="12.75" customHeight="1">
       <c r="B234" s="1"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" spans="2:6" ht="12.75" customHeight="1">
       <c r="B235" s="1"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" spans="2:6" ht="12.75" customHeight="1">
       <c r="B236" s="1"/>
       <c r="F236" s="2"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" spans="2:6" ht="12.75" customHeight="1">
       <c r="B237" s="1"/>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" spans="2:6" ht="12.75" customHeight="1">
       <c r="B238" s="1"/>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" spans="2:6" ht="12.75" customHeight="1">
       <c r="B239" s="1"/>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" spans="2:6" ht="12.75" customHeight="1">
       <c r="B240" s="1"/>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" spans="2:6" ht="12.75" customHeight="1">
       <c r="B241" s="1"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" spans="2:6" ht="12.75" customHeight="1">
       <c r="B242" s="1"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" spans="2:6" ht="12.75" customHeight="1">
       <c r="B243" s="1"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" spans="2:6" ht="12.75" customHeight="1">
       <c r="B244" s="1"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" spans="2:6" ht="12.75" customHeight="1">
       <c r="B245" s="1"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" spans="2:6" ht="12.75" customHeight="1">
       <c r="B246" s="1"/>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" spans="2:6" ht="12.75" customHeight="1">
       <c r="B247" s="1"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" spans="2:6" ht="12.75" customHeight="1">
       <c r="B248" s="1"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" spans="2:6" ht="12.75" customHeight="1">
       <c r="B249" s="1"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" spans="2:6" ht="12.75" customHeight="1">
       <c r="B250" s="1"/>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" spans="2:6" ht="12.75" customHeight="1">
       <c r="B251" s="1"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" spans="2:6" ht="12.75" customHeight="1">
       <c r="B252" s="1"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" spans="2:6" ht="12.75" customHeight="1">
       <c r="B253" s="1"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" spans="2:6" ht="12.75" customHeight="1">
       <c r="B254" s="1"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" spans="2:6" ht="12.75" customHeight="1">
       <c r="B255" s="1"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" spans="2:6" ht="12.75" customHeight="1">
       <c r="B256" s="1"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" spans="2:6" ht="12.75" customHeight="1">
       <c r="B257" s="1"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" spans="2:6" ht="12.75" customHeight="1">
       <c r="B258" s="1"/>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" spans="2:6" ht="12.75" customHeight="1">
       <c r="B259" s="1"/>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" spans="2:6" ht="12.75" customHeight="1">
       <c r="B260" s="1"/>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" spans="2:6" ht="12.75" customHeight="1">
       <c r="B261" s="1"/>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" spans="2:6" ht="12.75" customHeight="1">
       <c r="B262" s="1"/>
       <c r="F262" s="2"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" spans="2:6" ht="12.75" customHeight="1">
       <c r="B263" s="1"/>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" spans="2:6" ht="12.75" customHeight="1">
       <c r="B264" s="1"/>
       <c r="F264" s="2"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" spans="2:6" ht="12.75" customHeight="1">
       <c r="B265" s="1"/>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" spans="2:6" ht="12.75" customHeight="1">
       <c r="B266" s="1"/>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" spans="2:6" ht="12.75" customHeight="1">
       <c r="B267" s="1"/>
       <c r="F267" s="2"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" spans="2:6" ht="12.75" customHeight="1">
       <c r="B268" s="1"/>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" spans="2:6" ht="12.75" customHeight="1">
       <c r="B269" s="1"/>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" spans="2:6" ht="12.75" customHeight="1">
       <c r="B270" s="1"/>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" spans="2:6" ht="12.75" customHeight="1">
       <c r="B271" s="1"/>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" spans="2:6" ht="12.75" customHeight="1">
       <c r="B272" s="1"/>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" spans="2:6" ht="12.75" customHeight="1">
       <c r="B273" s="1"/>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" spans="2:6" ht="12.75" customHeight="1">
       <c r="B274" s="1"/>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" spans="2:6" ht="12.75" customHeight="1">
       <c r="B275" s="1"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" spans="2:6" ht="12.75" customHeight="1">
       <c r="B276" s="1"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" spans="2:6" ht="12.75" customHeight="1">
       <c r="B277" s="1"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" spans="2:6" ht="12.75" customHeight="1">
       <c r="B278" s="1"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" spans="2:6" ht="12.75" customHeight="1">
       <c r="B279" s="1"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" spans="2:6" ht="12.75" customHeight="1">
       <c r="B280" s="1"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" spans="2:6" ht="12.75" customHeight="1">
       <c r="B281" s="1"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" spans="2:6" ht="12.75" customHeight="1">
       <c r="B282" s="1"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" spans="2:6" ht="12.75" customHeight="1">
       <c r="B283" s="1"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" spans="2:6" ht="12.75" customHeight="1">
       <c r="B284" s="1"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" spans="2:6" ht="12.75" customHeight="1">
       <c r="B285" s="1"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" spans="2:6" ht="12.75" customHeight="1">
       <c r="B286" s="1"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" spans="2:6" ht="12.75" customHeight="1">
       <c r="B287" s="1"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" spans="2:6" ht="12.75" customHeight="1">
       <c r="B288" s="1"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" spans="2:6" ht="12.75" customHeight="1">
       <c r="B289" s="1"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" spans="2:6" ht="12.75" customHeight="1">
       <c r="B290" s="1"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" spans="2:6" ht="12.75" customHeight="1">
       <c r="B291" s="1"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" spans="2:6" ht="12.75" customHeight="1">
       <c r="B292" s="1"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" spans="2:6" ht="12.75" customHeight="1">
       <c r="B293" s="1"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" spans="2:6" ht="12.75" customHeight="1">
       <c r="B294" s="1"/>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" spans="2:6" ht="12.75" customHeight="1">
       <c r="B295" s="1"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" spans="2:6" ht="12.75" customHeight="1">
       <c r="B296" s="1"/>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" spans="2:6" ht="12.75" customHeight="1">
       <c r="B297" s="1"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" spans="2:6" ht="12.75" customHeight="1">
       <c r="B298" s="1"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" spans="2:6" ht="12.75" customHeight="1">
       <c r="B299" s="1"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" spans="2:6" ht="12.75" customHeight="1">
       <c r="B300" s="1"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" spans="2:6" ht="12.75" customHeight="1">
       <c r="B301" s="1"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" spans="2:6" ht="12.75" customHeight="1">
       <c r="B302" s="1"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" spans="2:6" ht="12.75" customHeight="1">
       <c r="B303" s="1"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" spans="2:6" ht="12.75" customHeight="1">
       <c r="B304" s="1"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1">
+    <row r="305" spans="2:6" ht="12.75" customHeight="1">
       <c r="B305" s="1"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1">
+    <row r="306" spans="2:6" ht="12.75" customHeight="1">
       <c r="B306" s="1"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1">
+    <row r="307" spans="2:6" ht="12.75" customHeight="1">
       <c r="B307" s="1"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1">
+    <row r="308" spans="2:6" ht="12.75" customHeight="1">
       <c r="B308" s="1"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1">
+    <row r="309" spans="2:6" ht="12.75" customHeight="1">
       <c r="B309" s="1"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1">
+    <row r="310" spans="2:6" ht="12.75" customHeight="1">
       <c r="B310" s="1"/>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1">
+    <row r="311" spans="2:6" ht="12.75" customHeight="1">
       <c r="B311" s="1"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1">
+    <row r="312" spans="2:6" ht="12.75" customHeight="1">
       <c r="B312" s="1"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" spans="2:6" ht="12.75" customHeight="1">
       <c r="B313" s="1"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1">
+    <row r="314" spans="2:6" ht="12.75" customHeight="1">
       <c r="B314" s="1"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1">
+    <row r="315" spans="2:6" ht="12.75" customHeight="1">
       <c r="B315" s="1"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1">
+    <row r="316" spans="2:6" ht="12.75" customHeight="1">
       <c r="B316" s="1"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1">
+    <row r="317" spans="2:6" ht="12.75" customHeight="1">
       <c r="B317" s="1"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1">
+    <row r="318" spans="2:6" ht="12.75" customHeight="1">
       <c r="B318" s="1"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" spans="2:6" ht="12.75" customHeight="1">
       <c r="B319" s="1"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" spans="2:6" ht="12.75" customHeight="1">
       <c r="B320" s="1"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1">
+    <row r="321" spans="2:6" ht="12.75" customHeight="1">
       <c r="B321" s="1"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1">
+    <row r="322" spans="2:6" ht="12.75" customHeight="1">
       <c r="B322" s="1"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1">
+    <row r="323" spans="2:6" ht="12.75" customHeight="1">
       <c r="B323" s="1"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1">
+    <row r="324" spans="2:6" ht="12.75" customHeight="1">
       <c r="B324" s="1"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1">
+    <row r="325" spans="2:6" ht="12.75" customHeight="1">
       <c r="B325" s="1"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1">
+    <row r="326" spans="2:6" ht="12.75" customHeight="1">
       <c r="B326" s="1"/>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1">
+    <row r="327" spans="2:6" ht="12.75" customHeight="1">
       <c r="B327" s="1"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1">
+    <row r="328" spans="2:6" ht="12.75" customHeight="1">
       <c r="B328" s="1"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1">
+    <row r="329" spans="2:6" ht="12.75" customHeight="1">
       <c r="B329" s="1"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1">
+    <row r="330" spans="2:6" ht="12.75" customHeight="1">
       <c r="B330" s="1"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
+    <row r="331" spans="2:6" ht="12.75" customHeight="1">
       <c r="B331" s="1"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
+    <row r="332" spans="2:6" ht="12.75" customHeight="1">
       <c r="B332" s="1"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1">
+    <row r="333" spans="2:6" ht="12.75" customHeight="1">
       <c r="B333" s="1"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1">
+    <row r="334" spans="2:6" ht="12.75" customHeight="1">
       <c r="B334" s="1"/>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1">
+    <row r="335" spans="2:6" ht="12.75" customHeight="1">
       <c r="B335" s="1"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1">
+    <row r="336" spans="2:6" ht="12.75" customHeight="1">
       <c r="B336" s="1"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1">
+    <row r="337" spans="2:6" ht="12.75" customHeight="1">
       <c r="B337" s="1"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1">
+    <row r="338" spans="2:6" ht="12.75" customHeight="1">
       <c r="B338" s="1"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1">
+    <row r="339" spans="2:6" ht="12.75" customHeight="1">
       <c r="B339" s="1"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1">
+    <row r="340" spans="2:6" ht="12.75" customHeight="1">
       <c r="B340" s="1"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
+    <row r="341" spans="2:6" ht="12.75" customHeight="1">
       <c r="B341" s="1"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1">
+    <row r="342" spans="2:6" ht="12.75" customHeight="1">
       <c r="B342" s="1"/>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1">
+    <row r="343" spans="2:6" ht="12.75" customHeight="1">
       <c r="B343" s="1"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1">
+    <row r="344" spans="2:6" ht="12.75" customHeight="1">
       <c r="B344" s="1"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1">
+    <row r="345" spans="2:6" ht="12.75" customHeight="1">
       <c r="B345" s="1"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1">
+    <row r="346" spans="2:6" ht="12.75" customHeight="1">
       <c r="B346" s="1"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1">
+    <row r="347" spans="2:6" ht="12.75" customHeight="1">
       <c r="B347" s="1"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1">
+    <row r="348" spans="2:6" ht="12.75" customHeight="1">
       <c r="B348" s="1"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1">
+    <row r="349" spans="2:6" ht="12.75" customHeight="1">
       <c r="B349" s="1"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1">
+    <row r="350" spans="2:6" ht="12.75" customHeight="1">
       <c r="B350" s="1"/>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1">
+    <row r="351" spans="2:6" ht="12.75" customHeight="1">
       <c r="B351" s="1"/>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1">
+    <row r="352" spans="2:6" ht="12.75" customHeight="1">
       <c r="B352" s="1"/>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1">
+    <row r="353" spans="2:6" ht="12.75" customHeight="1">
       <c r="B353" s="1"/>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1">
+    <row r="354" spans="2:6" ht="12.75" customHeight="1">
       <c r="B354" s="1"/>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1">
+    <row r="355" spans="2:6" ht="12.75" customHeight="1">
       <c r="B355" s="1"/>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1">
+    <row r="356" spans="2:6" ht="12.75" customHeight="1">
       <c r="B356" s="1"/>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1">
+    <row r="357" spans="2:6" ht="12.75" customHeight="1">
       <c r="B357" s="1"/>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1">
+    <row r="358" spans="2:6" ht="12.75" customHeight="1">
       <c r="B358" s="1"/>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1">
+    <row r="359" spans="2:6" ht="12.75" customHeight="1">
       <c r="B359" s="1"/>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1">
+    <row r="360" spans="2:6" ht="12.75" customHeight="1">
       <c r="B360" s="1"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1">
+    <row r="361" spans="2:6" ht="12.75" customHeight="1">
       <c r="B361" s="1"/>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1">
+    <row r="362" spans="2:6" ht="12.75" customHeight="1">
       <c r="B362" s="1"/>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" spans="2:6" ht="12.75" customHeight="1">
       <c r="B363" s="1"/>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" spans="2:6" ht="12.75" customHeight="1">
       <c r="B364" s="1"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" spans="2:6" ht="12.75" customHeight="1">
       <c r="B365" s="1"/>
       <c r="F365" s="2"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" spans="2:6" ht="12.75" customHeight="1">
       <c r="B366" s="1"/>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" spans="2:6" ht="12.75" customHeight="1">
       <c r="B367" s="1"/>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" spans="2:6" ht="12.75" customHeight="1">
       <c r="B368" s="1"/>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" spans="2:6" ht="12.75" customHeight="1">
       <c r="B369" s="1"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" spans="2:6" ht="12.75" customHeight="1">
       <c r="B370" s="1"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" spans="2:6" ht="12.75" customHeight="1">
       <c r="B371" s="1"/>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" spans="2:6" ht="12.75" customHeight="1">
       <c r="B372" s="1"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" spans="2:6" ht="12.75" customHeight="1">
       <c r="B373" s="1"/>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" spans="2:6" ht="12.75" customHeight="1">
       <c r="B374" s="1"/>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" spans="2:6" ht="12.75" customHeight="1">
       <c r="B375" s="1"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" spans="2:6" ht="12.75" customHeight="1">
       <c r="B376" s="1"/>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" spans="2:6" ht="12.75" customHeight="1">
       <c r="B377" s="1"/>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" spans="2:6" ht="12.75" customHeight="1">
       <c r="B378" s="1"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" spans="2:6" ht="12.75" customHeight="1">
       <c r="B379" s="1"/>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" spans="2:6" ht="12.75" customHeight="1">
       <c r="B380" s="1"/>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" spans="2:6" ht="12.75" customHeight="1">
       <c r="B381" s="1"/>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" spans="2:6" ht="12.75" customHeight="1">
       <c r="B382" s="1"/>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" spans="2:6" ht="12.75" customHeight="1">
       <c r="B383" s="1"/>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" spans="2:6" ht="12.75" customHeight="1">
       <c r="B384" s="1"/>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" spans="2:6" ht="12.75" customHeight="1">
       <c r="B385" s="1"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" spans="2:6" ht="12.75" customHeight="1">
       <c r="B386" s="1"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" spans="2:6" ht="12.75" customHeight="1">
       <c r="B387" s="1"/>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" spans="2:6" ht="12.75" customHeight="1">
       <c r="B388" s="1"/>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" spans="2:6" ht="12.75" customHeight="1">
       <c r="B389" s="1"/>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" spans="2:6" ht="12.75" customHeight="1">
       <c r="B390" s="1"/>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" spans="2:6" ht="12.75" customHeight="1">
       <c r="B391" s="1"/>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1">
+    <row r="392" spans="2:6" ht="12.75" customHeight="1">
       <c r="B392" s="1"/>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1">
+    <row r="393" spans="2:6" ht="12.75" customHeight="1">
       <c r="B393" s="1"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1">
+    <row r="394" spans="2:6" ht="12.75" customHeight="1">
       <c r="B394" s="1"/>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1">
+    <row r="395" spans="2:6" ht="12.75" customHeight="1">
       <c r="B395" s="1"/>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1">
+    <row r="396" spans="2:6" ht="12.75" customHeight="1">
       <c r="B396" s="1"/>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1">
+    <row r="397" spans="2:6" ht="12.75" customHeight="1">
       <c r="B397" s="1"/>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" ht="12.75" customHeight="1">
+    <row r="398" spans="2:6" ht="12.75" customHeight="1">
       <c r="B398" s="1"/>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" ht="12.75" customHeight="1">
+    <row r="399" spans="2:6" ht="12.75" customHeight="1">
       <c r="B399" s="1"/>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" ht="12.75" customHeight="1">
+    <row r="400" spans="2:6" ht="12.75" customHeight="1">
       <c r="B400" s="1"/>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" ht="12.75" customHeight="1">
+    <row r="401" spans="2:6" ht="12.75" customHeight="1">
       <c r="B401" s="1"/>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" ht="12.75" customHeight="1">
+    <row r="402" spans="2:6" ht="12.75" customHeight="1">
       <c r="B402" s="1"/>
       <c r="F402" s="2"/>
     </row>
-    <row r="403" ht="12.75" customHeight="1">
+    <row r="403" spans="2:6" ht="12.75" customHeight="1">
       <c r="B403" s="1"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" ht="12.75" customHeight="1">
+    <row r="404" spans="2:6" ht="12.75" customHeight="1">
       <c r="B404" s="1"/>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" ht="12.75" customHeight="1">
+    <row r="405" spans="2:6" ht="12.75" customHeight="1">
       <c r="B405" s="1"/>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" ht="12.75" customHeight="1">
+    <row r="406" spans="2:6" ht="12.75" customHeight="1">
       <c r="B406" s="1"/>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" ht="12.75" customHeight="1">
+    <row r="407" spans="2:6" ht="12.75" customHeight="1">
       <c r="B407" s="1"/>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" ht="12.75" customHeight="1">
+    <row r="408" spans="2:6" ht="12.75" customHeight="1">
       <c r="B408" s="1"/>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" ht="12.75" customHeight="1">
+    <row r="409" spans="2:6" ht="12.75" customHeight="1">
       <c r="B409" s="1"/>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" ht="12.75" customHeight="1">
+    <row r="410" spans="2:6" ht="12.75" customHeight="1">
       <c r="B410" s="1"/>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" ht="12.75" customHeight="1">
+    <row r="411" spans="2:6" ht="12.75" customHeight="1">
       <c r="B411" s="1"/>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" ht="12.75" customHeight="1">
+    <row r="412" spans="2:6" ht="12.75" customHeight="1">
       <c r="B412" s="1"/>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" ht="12.75" customHeight="1">
+    <row r="413" spans="2:6" ht="12.75" customHeight="1">
       <c r="B413" s="1"/>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" ht="12.75" customHeight="1">
+    <row r="414" spans="2:6" ht="12.75" customHeight="1">
       <c r="B414" s="1"/>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" ht="12.75" customHeight="1">
+    <row r="415" spans="2:6" ht="12.75" customHeight="1">
       <c r="B415" s="1"/>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" ht="12.75" customHeight="1">
+    <row r="416" spans="2:6" ht="12.75" customHeight="1">
       <c r="B416" s="1"/>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" ht="12.75" customHeight="1">
+    <row r="417" spans="2:6" ht="12.75" customHeight="1">
       <c r="B417" s="1"/>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" ht="12.75" customHeight="1">
+    <row r="418" spans="2:6" ht="12.75" customHeight="1">
       <c r="B418" s="1"/>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" ht="12.75" customHeight="1">
+    <row r="419" spans="2:6" ht="12.75" customHeight="1">
       <c r="B419" s="1"/>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" ht="12.75" customHeight="1">
+    <row r="420" spans="2:6" ht="12.75" customHeight="1">
       <c r="B420" s="1"/>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" ht="12.75" customHeight="1">
+    <row r="421" spans="2:6" ht="12.75" customHeight="1">
       <c r="B421" s="1"/>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" ht="12.75" customHeight="1">
+    <row r="422" spans="2:6" ht="12.75" customHeight="1">
       <c r="B422" s="1"/>
       <c r="F422" s="2"/>
     </row>
-    <row r="423" ht="12.75" customHeight="1">
+    <row r="423" spans="2:6" ht="12.75" customHeight="1">
       <c r="B423" s="1"/>
       <c r="F423" s="2"/>
     </row>
-    <row r="424" ht="12.75" customHeight="1">
+    <row r="424" spans="2:6" ht="12.75" customHeight="1">
       <c r="B424" s="1"/>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" ht="12.75" customHeight="1">
+    <row r="425" spans="2:6" ht="12.75" customHeight="1">
       <c r="B425" s="1"/>
       <c r="F425" s="2"/>
     </row>
-    <row r="426" ht="12.75" customHeight="1">
+    <row r="426" spans="2:6" ht="12.75" customHeight="1">
       <c r="B426" s="1"/>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" ht="12.75" customHeight="1">
+    <row r="427" spans="2:6" ht="12.75" customHeight="1">
       <c r="B427" s="1"/>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" ht="12.75" customHeight="1">
+    <row r="428" spans="2:6" ht="12.75" customHeight="1">
       <c r="B428" s="1"/>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" ht="12.75" customHeight="1">
+    <row r="429" spans="2:6" ht="12.75" customHeight="1">
       <c r="B429" s="1"/>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" ht="12.75" customHeight="1">
+    <row r="430" spans="2:6" ht="12.75" customHeight="1">
       <c r="B430" s="1"/>
       <c r="F430" s="2"/>
     </row>
-    <row r="431" ht="12.75" customHeight="1">
+    <row r="431" spans="2:6" ht="12.75" customHeight="1">
       <c r="B431" s="1"/>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" ht="12.75" customHeight="1">
+    <row r="432" spans="2:6" ht="12.75" customHeight="1">
       <c r="B432" s="1"/>
       <c r="F432" s="2"/>
     </row>
-    <row r="433" ht="12.75" customHeight="1">
+    <row r="433" spans="2:6" ht="12.75" customHeight="1">
       <c r="B433" s="1"/>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" ht="12.75" customHeight="1">
+    <row r="434" spans="2:6" ht="12.75" customHeight="1">
       <c r="B434" s="1"/>
       <c r="F434" s="2"/>
     </row>
-    <row r="435" ht="12.75" customHeight="1">
+    <row r="435" spans="2:6" ht="12.75" customHeight="1">
       <c r="B435" s="1"/>
       <c r="F435" s="2"/>
     </row>
-    <row r="436" ht="12.75" customHeight="1">
+    <row r="436" spans="2:6" ht="12.75" customHeight="1">
       <c r="B436" s="1"/>
       <c r="F436" s="2"/>
     </row>
-    <row r="437" ht="12.75" customHeight="1">
+    <row r="437" spans="2:6" ht="12.75" customHeight="1">
       <c r="B437" s="1"/>
       <c r="F437" s="2"/>
     </row>
-    <row r="438" ht="12.75" customHeight="1">
+    <row r="438" spans="2:6" ht="12.75" customHeight="1">
       <c r="B438" s="1"/>
       <c r="F438" s="2"/>
     </row>
-    <row r="439" ht="12.75" customHeight="1">
+    <row r="439" spans="2:6" ht="12.75" customHeight="1">
       <c r="B439" s="1"/>
       <c r="F439" s="2"/>
     </row>
-    <row r="440" ht="12.75" customHeight="1">
+    <row r="440" spans="2:6" ht="12.75" customHeight="1">
       <c r="B440" s="1"/>
       <c r="F440" s="2"/>
     </row>
-    <row r="441" ht="12.75" customHeight="1">
+    <row r="441" spans="2:6" ht="12.75" customHeight="1">
       <c r="B441" s="1"/>
       <c r="F441" s="2"/>
     </row>
-    <row r="442" ht="12.75" customHeight="1">
+    <row r="442" spans="2:6" ht="12.75" customHeight="1">
       <c r="B442" s="1"/>
       <c r="F442" s="2"/>
     </row>
-    <row r="443" ht="12.75" customHeight="1">
+    <row r="443" spans="2:6" ht="12.75" customHeight="1">
       <c r="B443" s="1"/>
       <c r="F443" s="2"/>
     </row>
-    <row r="444" ht="12.75" customHeight="1">
+    <row r="444" spans="2:6" ht="12.75" customHeight="1">
       <c r="B444" s="1"/>
       <c r="F444" s="2"/>
     </row>
-    <row r="445" ht="12.75" customHeight="1">
+    <row r="445" spans="2:6" ht="12.75" customHeight="1">
       <c r="B445" s="1"/>
       <c r="F445" s="2"/>
     </row>
-    <row r="446" ht="12.75" customHeight="1">
+    <row r="446" spans="2:6" ht="12.75" customHeight="1">
       <c r="B446" s="1"/>
       <c r="F446" s="2"/>
     </row>
-    <row r="447" ht="12.75" customHeight="1">
+    <row r="447" spans="2:6" ht="12.75" customHeight="1">
       <c r="B447" s="1"/>
       <c r="F447" s="2"/>
     </row>
-    <row r="448" ht="12.75" customHeight="1">
+    <row r="448" spans="2:6" ht="12.75" customHeight="1">
       <c r="B448" s="1"/>
       <c r="F448" s="2"/>
     </row>
-    <row r="449" ht="12.75" customHeight="1">
+    <row r="449" spans="2:6" ht="12.75" customHeight="1">
       <c r="B449" s="1"/>
       <c r="F449" s="2"/>
     </row>
-    <row r="450" ht="12.75" customHeight="1">
+    <row r="450" spans="2:6" ht="12.75" customHeight="1">
       <c r="B450" s="1"/>
       <c r="F450" s="2"/>
     </row>
-    <row r="451" ht="12.75" customHeight="1">
+    <row r="451" spans="2:6" ht="12.75" customHeight="1">
       <c r="B451" s="1"/>
       <c r="F451" s="2"/>
     </row>
-    <row r="452" ht="12.75" customHeight="1">
+    <row r="452" spans="2:6" ht="12.75" customHeight="1">
       <c r="B452" s="1"/>
       <c r="F452" s="2"/>
     </row>
-    <row r="453" ht="12.75" customHeight="1">
+    <row r="453" spans="2:6" ht="12.75" customHeight="1">
       <c r="B453" s="1"/>
       <c r="F453" s="2"/>
     </row>
-    <row r="454" ht="12.75" customHeight="1">
+    <row r="454" spans="2:6" ht="12.75" customHeight="1">
       <c r="B454" s="1"/>
       <c r="F454" s="2"/>
     </row>
-    <row r="455" ht="12.75" customHeight="1">
+    <row r="455" spans="2:6" ht="12.75" customHeight="1">
       <c r="B455" s="1"/>
       <c r="F455" s="2"/>
     </row>
-    <row r="456" ht="12.75" customHeight="1">
+    <row r="456" spans="2:6" ht="12.75" customHeight="1">
       <c r="B456" s="1"/>
       <c r="F456" s="2"/>
     </row>
-    <row r="457" ht="12.75" customHeight="1">
+    <row r="457" spans="2:6" ht="12.75" customHeight="1">
       <c r="B457" s="1"/>
       <c r="F457" s="2"/>
     </row>
-    <row r="458" ht="12.75" customHeight="1">
+    <row r="458" spans="2:6" ht="12.75" customHeight="1">
       <c r="B458" s="1"/>
       <c r="F458" s="2"/>
     </row>
-    <row r="459" ht="12.75" customHeight="1">
+    <row r="459" spans="2:6" ht="12.75" customHeight="1">
       <c r="B459" s="1"/>
       <c r="F459" s="2"/>
     </row>
-    <row r="460" ht="12.75" customHeight="1">
+    <row r="460" spans="2:6" ht="12.75" customHeight="1">
       <c r="B460" s="1"/>
       <c r="F460" s="2"/>
     </row>
-    <row r="461" ht="12.75" customHeight="1">
+    <row r="461" spans="2:6" ht="12.75" customHeight="1">
       <c r="B461" s="1"/>
       <c r="F461" s="2"/>
     </row>
-    <row r="462" ht="12.75" customHeight="1">
+    <row r="462" spans="2:6" ht="12.75" customHeight="1">
       <c r="B462" s="1"/>
       <c r="F462" s="2"/>
     </row>
-    <row r="463" ht="12.75" customHeight="1">
+    <row r="463" spans="2:6" ht="12.75" customHeight="1">
       <c r="B463" s="1"/>
       <c r="F463" s="2"/>
     </row>
-    <row r="464" ht="12.75" customHeight="1">
+    <row r="464" spans="2:6" ht="12.75" customHeight="1">
       <c r="B464" s="1"/>
       <c r="F464" s="2"/>
     </row>
-    <row r="465" ht="12.75" customHeight="1">
+    <row r="465" spans="2:6" ht="12.75" customHeight="1">
       <c r="B465" s="1"/>
       <c r="F465" s="2"/>
     </row>
-    <row r="466" ht="12.75" customHeight="1">
+    <row r="466" spans="2:6" ht="12.75" customHeight="1">
       <c r="B466" s="1"/>
       <c r="F466" s="2"/>
     </row>
-    <row r="467" ht="12.75" customHeight="1">
+    <row r="467" spans="2:6" ht="12.75" customHeight="1">
       <c r="B467" s="1"/>
       <c r="F467" s="2"/>
     </row>
-    <row r="468" ht="12.75" customHeight="1">
+    <row r="468" spans="2:6" ht="12.75" customHeight="1">
       <c r="B468" s="1"/>
       <c r="F468" s="2"/>
     </row>
-    <row r="469" ht="12.75" customHeight="1">
+    <row r="469" spans="2:6" ht="12.75" customHeight="1">
       <c r="B469" s="1"/>
       <c r="F469" s="2"/>
     </row>
-    <row r="470" ht="12.75" customHeight="1">
+    <row r="470" spans="2:6" ht="12.75" customHeight="1">
       <c r="B470" s="1"/>
       <c r="F470" s="2"/>
     </row>
-    <row r="471" ht="12.75" customHeight="1">
+    <row r="471" spans="2:6" ht="12.75" customHeight="1">
       <c r="B471" s="1"/>
       <c r="F471" s="2"/>
     </row>
-    <row r="472" ht="12.75" customHeight="1">
+    <row r="472" spans="2:6" ht="12.75" customHeight="1">
       <c r="B472" s="1"/>
       <c r="F472" s="2"/>
     </row>
-    <row r="473" ht="12.75" customHeight="1">
+    <row r="473" spans="2:6" ht="12.75" customHeight="1">
       <c r="B473" s="1"/>
       <c r="F473" s="2"/>
     </row>
-    <row r="474" ht="12.75" customHeight="1">
+    <row r="474" spans="2:6" ht="12.75" customHeight="1">
       <c r="B474" s="1"/>
       <c r="F474" s="2"/>
     </row>
-    <row r="475" ht="12.75" customHeight="1">
+    <row r="475" spans="2:6" ht="12.75" customHeight="1">
       <c r="B475" s="1"/>
       <c r="F475" s="2"/>
     </row>
-    <row r="476" ht="12.75" customHeight="1">
+    <row r="476" spans="2:6" ht="12.75" customHeight="1">
       <c r="B476" s="1"/>
       <c r="F476" s="2"/>
     </row>
-    <row r="477" ht="12.75" customHeight="1">
+    <row r="477" spans="2:6" ht="12.75" customHeight="1">
       <c r="B477" s="1"/>
       <c r="F477" s="2"/>
     </row>
-    <row r="478" ht="12.75" customHeight="1">
+    <row r="478" spans="2:6" ht="12.75" customHeight="1">
       <c r="B478" s="1"/>
       <c r="F478" s="2"/>
     </row>
-    <row r="479" ht="12.75" customHeight="1">
+    <row r="479" spans="2:6" ht="12.75" customHeight="1">
       <c r="B479" s="1"/>
       <c r="F479" s="2"/>
     </row>
-    <row r="480" ht="12.75" customHeight="1">
+    <row r="480" spans="2:6" ht="12.75" customHeight="1">
       <c r="B480" s="1"/>
       <c r="F480" s="2"/>
     </row>
-    <row r="481" ht="12.75" customHeight="1">
+    <row r="481" spans="2:6" ht="12.75" customHeight="1">
       <c r="B481" s="1"/>
       <c r="F481" s="2"/>
     </row>
-    <row r="482" ht="12.75" customHeight="1">
+    <row r="482" spans="2:6" ht="12.75" customHeight="1">
       <c r="B482" s="1"/>
       <c r="F482" s="2"/>
     </row>
-    <row r="483" ht="12.75" customHeight="1">
+    <row r="483" spans="2:6" ht="12.75" customHeight="1">
       <c r="B483" s="1"/>
       <c r="F483" s="2"/>
     </row>
-    <row r="484" ht="12.75" customHeight="1">
+    <row r="484" spans="2:6" ht="12.75" customHeight="1">
       <c r="B484" s="1"/>
       <c r="F484" s="2"/>
     </row>
-    <row r="485" ht="12.75" customHeight="1">
+    <row r="485" spans="2:6" ht="12.75" customHeight="1">
       <c r="B485" s="1"/>
       <c r="F485" s="2"/>
     </row>
-    <row r="486" ht="12.75" customHeight="1">
+    <row r="486" spans="2:6" ht="12.75" customHeight="1">
       <c r="B486" s="1"/>
       <c r="F486" s="2"/>
     </row>
-    <row r="487" ht="12.75" customHeight="1">
+    <row r="487" spans="2:6" ht="12.75" customHeight="1">
       <c r="B487" s="1"/>
       <c r="F487" s="2"/>
     </row>
-    <row r="488" ht="12.75" customHeight="1">
+    <row r="488" spans="2:6" ht="12.75" customHeight="1">
       <c r="B488" s="1"/>
       <c r="F488" s="2"/>
     </row>
-    <row r="489" ht="12.75" customHeight="1">
+    <row r="489" spans="2:6" ht="12.75" customHeight="1">
       <c r="B489" s="1"/>
       <c r="F489" s="2"/>
     </row>
-    <row r="490" ht="12.75" customHeight="1">
+    <row r="490" spans="2:6" ht="12.75" customHeight="1">
       <c r="B490" s="1"/>
       <c r="F490" s="2"/>
     </row>
-    <row r="491" ht="12.75" customHeight="1">
+    <row r="491" spans="2:6" ht="12.75" customHeight="1">
       <c r="B491" s="1"/>
       <c r="F491" s="2"/>
     </row>
-    <row r="492" ht="12.75" customHeight="1">
+    <row r="492" spans="2:6" ht="12.75" customHeight="1">
       <c r="B492" s="1"/>
       <c r="F492" s="2"/>
     </row>
-    <row r="493" ht="12.75" customHeight="1">
+    <row r="493" spans="2:6" ht="12.75" customHeight="1">
       <c r="B493" s="1"/>
       <c r="F493" s="2"/>
     </row>
-    <row r="494" ht="12.75" customHeight="1">
+    <row r="494" spans="2:6" ht="12.75" customHeight="1">
       <c r="B494" s="1"/>
       <c r="F494" s="2"/>
     </row>
-    <row r="495" ht="12.75" customHeight="1">
+    <row r="495" spans="2:6" ht="12.75" customHeight="1">
       <c r="B495" s="1"/>
       <c r="F495" s="2"/>
     </row>
-    <row r="496" ht="12.75" customHeight="1">
+    <row r="496" spans="2:6" ht="12.75" customHeight="1">
       <c r="B496" s="1"/>
       <c r="F496" s="2"/>
     </row>
-    <row r="497" ht="12.75" customHeight="1">
+    <row r="497" spans="2:6" ht="12.75" customHeight="1">
       <c r="B497" s="1"/>
       <c r="F497" s="2"/>
     </row>
-    <row r="498" ht="12.75" customHeight="1">
+    <row r="498" spans="2:6" ht="12.75" customHeight="1">
       <c r="B498" s="1"/>
       <c r="F498" s="2"/>
     </row>
-    <row r="499" ht="12.75" customHeight="1">
+    <row r="499" spans="2:6" ht="12.75" customHeight="1">
       <c r="B499" s="1"/>
       <c r="F499" s="2"/>
     </row>
-    <row r="500" ht="12.75" customHeight="1">
+    <row r="500" spans="2:6" ht="12.75" customHeight="1">
       <c r="B500" s="1"/>
       <c r="F500" s="2"/>
     </row>
-    <row r="501" ht="12.75" customHeight="1">
+    <row r="501" spans="2:6" ht="12.75" customHeight="1">
       <c r="B501" s="1"/>
       <c r="F501" s="2"/>
     </row>
-    <row r="502" ht="12.75" customHeight="1">
+    <row r="502" spans="2:6" ht="12.75" customHeight="1">
       <c r="B502" s="1"/>
       <c r="F502" s="2"/>
     </row>
-    <row r="503" ht="12.75" customHeight="1">
+    <row r="503" spans="2:6" ht="12.75" customHeight="1">
       <c r="B503" s="1"/>
       <c r="F503" s="2"/>
     </row>
-    <row r="504" ht="12.75" customHeight="1">
+    <row r="504" spans="2:6" ht="12.75" customHeight="1">
       <c r="B504" s="1"/>
       <c r="F504" s="2"/>
     </row>
-    <row r="505" ht="12.75" customHeight="1">
+    <row r="505" spans="2:6" ht="12.75" customHeight="1">
       <c r="B505" s="1"/>
       <c r="F505" s="2"/>
     </row>
-    <row r="506" ht="12.75" customHeight="1">
+    <row r="506" spans="2:6" ht="12.75" customHeight="1">
       <c r="B506" s="1"/>
       <c r="F506" s="2"/>
     </row>
-    <row r="507" ht="12.75" customHeight="1">
+    <row r="507" spans="2:6" ht="12.75" customHeight="1">
       <c r="B507" s="1"/>
       <c r="F507" s="2"/>
     </row>
-    <row r="508" ht="12.75" customHeight="1">
+    <row r="508" spans="2:6" ht="12.75" customHeight="1">
       <c r="B508" s="1"/>
       <c r="F508" s="2"/>
     </row>
-    <row r="509" ht="12.75" customHeight="1">
+    <row r="509" spans="2:6" ht="12.75" customHeight="1">
       <c r="B509" s="1"/>
       <c r="F509" s="2"/>
     </row>
-    <row r="510" ht="12.75" customHeight="1">
+    <row r="510" spans="2:6" ht="12.75" customHeight="1">
       <c r="B510" s="1"/>
       <c r="F510" s="2"/>
     </row>
-    <row r="511" ht="12.75" customHeight="1">
+    <row r="511" spans="2:6" ht="12.75" customHeight="1">
       <c r="B511" s="1"/>
       <c r="F511" s="2"/>
     </row>
-    <row r="512" ht="12.75" customHeight="1">
+    <row r="512" spans="2:6" ht="12.75" customHeight="1">
       <c r="B512" s="1"/>
       <c r="F512" s="2"/>
     </row>
-    <row r="513" ht="12.75" customHeight="1">
+    <row r="513" spans="2:6" ht="12.75" customHeight="1">
       <c r="B513" s="1"/>
       <c r="F513" s="2"/>
     </row>
-    <row r="514" ht="12.75" customHeight="1">
+    <row r="514" spans="2:6" ht="12.75" customHeight="1">
       <c r="B514" s="1"/>
       <c r="F514" s="2"/>
     </row>
-    <row r="515" ht="12.75" customHeight="1">
+    <row r="515" spans="2:6" ht="12.75" customHeight="1">
       <c r="B515" s="1"/>
       <c r="F515" s="2"/>
     </row>
-    <row r="516" ht="12.75" customHeight="1">
+    <row r="516" spans="2:6" ht="12.75" customHeight="1">
       <c r="B516" s="1"/>
       <c r="F516" s="2"/>
     </row>
-    <row r="517" ht="12.75" customHeight="1">
+    <row r="517" spans="2:6" ht="12.75" customHeight="1">
       <c r="B517" s="1"/>
       <c r="F517" s="2"/>
     </row>
-    <row r="518" ht="12.75" customHeight="1">
+    <row r="518" spans="2:6" ht="12.75" customHeight="1">
       <c r="B518" s="1"/>
       <c r="F518" s="2"/>
     </row>
-    <row r="519" ht="12.75" customHeight="1">
+    <row r="519" spans="2:6" ht="12.75" customHeight="1">
       <c r="B519" s="1"/>
       <c r="F519" s="2"/>
     </row>
-    <row r="520" ht="12.75" customHeight="1">
+    <row r="520" spans="2:6" ht="12.75" customHeight="1">
       <c r="B520" s="1"/>
       <c r="F520" s="2"/>
     </row>
-    <row r="521" ht="12.75" customHeight="1">
+    <row r="521" spans="2:6" ht="12.75" customHeight="1">
       <c r="B521" s="1"/>
       <c r="F521" s="2"/>
     </row>
-    <row r="522" ht="12.75" customHeight="1">
+    <row r="522" spans="2:6" ht="12.75" customHeight="1">
       <c r="B522" s="1"/>
       <c r="F522" s="2"/>
     </row>
-    <row r="523" ht="12.75" customHeight="1">
+    <row r="523" spans="2:6" ht="12.75" customHeight="1">
       <c r="B523" s="1"/>
       <c r="F523" s="2"/>
     </row>
-    <row r="524" ht="12.75" customHeight="1">
+    <row r="524" spans="2:6" ht="12.75" customHeight="1">
       <c r="B524" s="1"/>
       <c r="F524" s="2"/>
     </row>
-    <row r="525" ht="12.75" customHeight="1">
+    <row r="525" spans="2:6" ht="12.75" customHeight="1">
       <c r="B525" s="1"/>
       <c r="F525" s="2"/>
     </row>
-    <row r="526" ht="12.75" customHeight="1">
+    <row r="526" spans="2:6" ht="12.75" customHeight="1">
       <c r="B526" s="1"/>
       <c r="F526" s="2"/>
     </row>
-    <row r="527" ht="12.75" customHeight="1">
+    <row r="527" spans="2:6" ht="12.75" customHeight="1">
       <c r="B527" s="1"/>
       <c r="F527" s="2"/>
     </row>
-    <row r="528" ht="12.75" customHeight="1">
+    <row r="528" spans="2:6" ht="12.75" customHeight="1">
       <c r="B528" s="1"/>
       <c r="F528" s="2"/>
     </row>
-    <row r="529" ht="12.75" customHeight="1">
+    <row r="529" spans="2:6" ht="12.75" customHeight="1">
       <c r="B529" s="1"/>
       <c r="F529" s="2"/>
     </row>
-    <row r="530" ht="12.75" customHeight="1">
+    <row r="530" spans="2:6" ht="12.75" customHeight="1">
       <c r="B530" s="1"/>
       <c r="F530" s="2"/>
     </row>
-    <row r="531" ht="12.75" customHeight="1">
+    <row r="531" spans="2:6" ht="12.75" customHeight="1">
       <c r="B531" s="1"/>
       <c r="F531" s="2"/>
     </row>
-    <row r="532" ht="12.75" customHeight="1">
+    <row r="532" spans="2:6" ht="12.75" customHeight="1">
       <c r="B532" s="1"/>
       <c r="F532" s="2"/>
     </row>
-    <row r="533" ht="12.75" customHeight="1">
+    <row r="533" spans="2:6" ht="12.75" customHeight="1">
       <c r="B533" s="1"/>
       <c r="F533" s="2"/>
     </row>
-    <row r="534" ht="12.75" customHeight="1">
+    <row r="534" spans="2:6" ht="12.75" customHeight="1">
       <c r="B534" s="1"/>
       <c r="F534" s="2"/>
     </row>
-    <row r="535" ht="12.75" customHeight="1">
+    <row r="535" spans="2:6" ht="12.75" customHeight="1">
       <c r="B535" s="1"/>
       <c r="F535" s="2"/>
     </row>
-    <row r="536" ht="12.75" customHeight="1">
+    <row r="536" spans="2:6" ht="12.75" customHeight="1">
       <c r="B536" s="1"/>
       <c r="F536" s="2"/>
     </row>
-    <row r="537" ht="12.75" customHeight="1">
+    <row r="537" spans="2:6" ht="12.75" customHeight="1">
       <c r="B537" s="1"/>
       <c r="F537" s="2"/>
     </row>
-    <row r="538" ht="12.75" customHeight="1">
+    <row r="538" spans="2:6" ht="12.75" customHeight="1">
       <c r="B538" s="1"/>
       <c r="F538" s="2"/>
     </row>
-    <row r="539" ht="12.75" customHeight="1">
+    <row r="539" spans="2:6" ht="12.75" customHeight="1">
       <c r="B539" s="1"/>
       <c r="F539" s="2"/>
     </row>
-    <row r="540" ht="12.75" customHeight="1">
+    <row r="540" spans="2:6" ht="12.75" customHeight="1">
       <c r="B540" s="1"/>
       <c r="F540" s="2"/>
     </row>
-    <row r="541" ht="12.75" customHeight="1">
+    <row r="541" spans="2:6" ht="12.75" customHeight="1">
       <c r="B541" s="1"/>
       <c r="F541" s="2"/>
     </row>
-    <row r="542" ht="12.75" customHeight="1">
+    <row r="542" spans="2:6" ht="12.75" customHeight="1">
       <c r="B542" s="1"/>
       <c r="F542" s="2"/>
     </row>
-    <row r="543" ht="12.75" customHeight="1">
+    <row r="543" spans="2:6" ht="12.75" customHeight="1">
       <c r="B543" s="1"/>
       <c r="F543" s="2"/>
     </row>
-    <row r="544" ht="12.75" customHeight="1">
+    <row r="544" spans="2:6" ht="12.75" customHeight="1">
       <c r="B544" s="1"/>
       <c r="F544" s="2"/>
     </row>
-    <row r="545" ht="12.75" customHeight="1">
+    <row r="545" spans="2:6" ht="12.75" customHeight="1">
       <c r="B545" s="1"/>
       <c r="F545" s="2"/>
     </row>
-    <row r="546" ht="12.75" customHeight="1">
+    <row r="546" spans="2:6" ht="12.75" customHeight="1">
       <c r="B546" s="1"/>
       <c r="F546" s="2"/>
     </row>
-    <row r="547" ht="12.75" customHeight="1">
+    <row r="547" spans="2:6" ht="12.75" customHeight="1">
       <c r="B547" s="1"/>
       <c r="F547" s="2"/>
     </row>
-    <row r="548" ht="12.75" customHeight="1">
+    <row r="548" spans="2:6" ht="12.75" customHeight="1">
       <c r="B548" s="1"/>
       <c r="F548" s="2"/>
     </row>
-    <row r="549" ht="12.75" customHeight="1">
+    <row r="549" spans="2:6" ht="12.75" customHeight="1">
       <c r="B549" s="1"/>
       <c r="F549" s="2"/>
     </row>
-    <row r="550" ht="12.75" customHeight="1">
+    <row r="550" spans="2:6" ht="12.75" customHeight="1">
       <c r="B550" s="1"/>
       <c r="F550" s="2"/>
     </row>
-    <row r="551" ht="12.75" customHeight="1">
+    <row r="551" spans="2:6" ht="12.75" customHeight="1">
       <c r="B551" s="1"/>
       <c r="F551" s="2"/>
     </row>
-    <row r="552" ht="12.75" customHeight="1">
+    <row r="552" spans="2:6" ht="12.75" customHeight="1">
       <c r="B552" s="1"/>
       <c r="F552" s="2"/>
     </row>
-    <row r="553" ht="12.75" customHeight="1">
+    <row r="553" spans="2:6" ht="12.75" customHeight="1">
       <c r="B553" s="1"/>
       <c r="F553" s="2"/>
     </row>
-    <row r="554" ht="12.75" customHeight="1">
+    <row r="554" spans="2:6" ht="12.75" customHeight="1">
       <c r="B554" s="1"/>
       <c r="F554" s="2"/>
     </row>
-    <row r="555" ht="12.75" customHeight="1">
+    <row r="555" spans="2:6" ht="12.75" customHeight="1">
       <c r="B555" s="1"/>
       <c r="F555" s="2"/>
     </row>
-    <row r="556" ht="12.75" customHeight="1">
+    <row r="556" spans="2:6" ht="12.75" customHeight="1">
       <c r="B556" s="1"/>
       <c r="F556" s="2"/>
     </row>
-    <row r="557" ht="12.75" customHeight="1">
+    <row r="557" spans="2:6" ht="12.75" customHeight="1">
       <c r="B557" s="1"/>
       <c r="F557" s="2"/>
     </row>
-    <row r="558" ht="12.75" customHeight="1">
+    <row r="558" spans="2:6" ht="12.75" customHeight="1">
       <c r="B558" s="1"/>
       <c r="F558" s="2"/>
     </row>
-    <row r="559" ht="12.75" customHeight="1">
+    <row r="559" spans="2:6" ht="12.75" customHeight="1">
       <c r="B559" s="1"/>
       <c r="F559" s="2"/>
     </row>
-    <row r="560" ht="12.75" customHeight="1">
+    <row r="560" spans="2:6" ht="12.75" customHeight="1">
       <c r="B560" s="1"/>
       <c r="F560" s="2"/>
     </row>
-    <row r="561" ht="12.75" customHeight="1">
+    <row r="561" spans="2:6" ht="12.75" customHeight="1">
       <c r="B561" s="1"/>
       <c r="F561" s="2"/>
     </row>
-    <row r="562" ht="12.75" customHeight="1">
+    <row r="562" spans="2:6" ht="12.75" customHeight="1">
       <c r="B562" s="1"/>
       <c r="F562" s="2"/>
     </row>
-    <row r="563" ht="12.75" customHeight="1">
+    <row r="563" spans="2:6" ht="12.75" customHeight="1">
       <c r="B563" s="1"/>
       <c r="F563" s="2"/>
     </row>
-    <row r="564" ht="12.75" customHeight="1">
+    <row r="564" spans="2:6" ht="12.75" customHeight="1">
       <c r="B564" s="1"/>
       <c r="F564" s="2"/>
     </row>
-    <row r="565" ht="12.75" customHeight="1">
+    <row r="565" spans="2:6" ht="12.75" customHeight="1">
       <c r="B565" s="1"/>
       <c r="F565" s="2"/>
     </row>
-    <row r="566" ht="12.75" customHeight="1">
+    <row r="566" spans="2:6" ht="12.75" customHeight="1">
       <c r="B566" s="1"/>
       <c r="F566" s="2"/>
     </row>
-    <row r="567" ht="12.75" customHeight="1">
+    <row r="567" spans="2:6" ht="12.75" customHeight="1">
       <c r="B567" s="1"/>
       <c r="F567" s="2"/>
     </row>
-    <row r="568" ht="12.75" customHeight="1">
+    <row r="568" spans="2:6" ht="12.75" customHeight="1">
       <c r="B568" s="1"/>
       <c r="F568" s="2"/>
     </row>
-    <row r="569" ht="12.75" customHeight="1">
+    <row r="569" spans="2:6" ht="12.75" customHeight="1">
       <c r="B569" s="1"/>
       <c r="F569" s="2"/>
     </row>
-    <row r="570" ht="12.75" customHeight="1">
+    <row r="570" spans="2:6" ht="12.75" customHeight="1">
       <c r="B570" s="1"/>
       <c r="F570" s="2"/>
     </row>
-    <row r="571" ht="12.75" customHeight="1">
+    <row r="571" spans="2:6" ht="12.75" customHeight="1">
       <c r="B571" s="1"/>
       <c r="F571" s="2"/>
     </row>
-    <row r="572" ht="12.75" customHeight="1">
+    <row r="572" spans="2:6" ht="12.75" customHeight="1">
       <c r="B572" s="1"/>
       <c r="F572" s="2"/>
     </row>
-    <row r="573" ht="12.75" customHeight="1">
+    <row r="573" spans="2:6" ht="12.75" customHeight="1">
       <c r="B573" s="1"/>
       <c r="F573" s="2"/>
     </row>
-    <row r="574" ht="12.75" customHeight="1">
+    <row r="574" spans="2:6" ht="12.75" customHeight="1">
       <c r="B574" s="1"/>
       <c r="F574" s="2"/>
     </row>
-    <row r="575" ht="12.75" customHeight="1">
+    <row r="575" spans="2:6" ht="12.75" customHeight="1">
       <c r="B575" s="1"/>
       <c r="F575" s="2"/>
     </row>
-    <row r="576" ht="12.75" customHeight="1">
+    <row r="576" spans="2:6" ht="12.75" customHeight="1">
       <c r="B576" s="1"/>
       <c r="F576" s="2"/>
     </row>
-    <row r="577" ht="12.75" customHeight="1">
+    <row r="577" spans="2:6" ht="12.75" customHeight="1">
       <c r="B577" s="1"/>
       <c r="F577" s="2"/>
     </row>
-    <row r="578" ht="12.75" customHeight="1">
+    <row r="578" spans="2:6" ht="12.75" customHeight="1">
       <c r="B578" s="1"/>
       <c r="F578" s="2"/>
     </row>
-    <row r="579" ht="12.75" customHeight="1">
+    <row r="579" spans="2:6" ht="12.75" customHeight="1">
       <c r="B579" s="1"/>
       <c r="F579" s="2"/>
     </row>
-    <row r="580" ht="12.75" customHeight="1">
+    <row r="580" spans="2:6" ht="12.75" customHeight="1">
       <c r="B580" s="1"/>
       <c r="F580" s="2"/>
     </row>
-    <row r="581" ht="12.75" customHeight="1">
+    <row r="581" spans="2:6" ht="12.75" customHeight="1">
       <c r="B581" s="1"/>
       <c r="F581" s="2"/>
     </row>
-    <row r="582" ht="12.75" customHeight="1">
+    <row r="582" spans="2:6" ht="12.75" customHeight="1">
       <c r="B582" s="1"/>
       <c r="F582" s="2"/>
     </row>
-    <row r="583" ht="12.75" customHeight="1">
+    <row r="583" spans="2:6" ht="12.75" customHeight="1">
       <c r="B583" s="1"/>
       <c r="F583" s="2"/>
     </row>
-    <row r="584" ht="12.75" customHeight="1">
+    <row r="584" spans="2:6" ht="12.75" customHeight="1">
       <c r="B584" s="1"/>
       <c r="F584" s="2"/>
     </row>
-    <row r="585" ht="12.75" customHeight="1">
+    <row r="585" spans="2:6" ht="12.75" customHeight="1">
       <c r="B585" s="1"/>
       <c r="F585" s="2"/>
     </row>
-    <row r="586" ht="12.75" customHeight="1">
+    <row r="586" spans="2:6" ht="12.75" customHeight="1">
       <c r="B586" s="1"/>
       <c r="F586" s="2"/>
     </row>
-    <row r="587" ht="12.75" customHeight="1">
+    <row r="587" spans="2:6" ht="12.75" customHeight="1">
       <c r="B587" s="1"/>
       <c r="F587" s="2"/>
     </row>
-    <row r="588" ht="12.75" customHeight="1">
+    <row r="588" spans="2:6" ht="12.75" customHeight="1">
       <c r="B588" s="1"/>
       <c r="F588" s="2"/>
     </row>
-    <row r="589" ht="12.75" customHeight="1">
+    <row r="589" spans="2:6" ht="12.75" customHeight="1">
       <c r="B589" s="1"/>
       <c r="F589" s="2"/>
     </row>
-    <row r="590" ht="12.75" customHeight="1">
+    <row r="590" spans="2:6" ht="12.75" customHeight="1">
       <c r="B590" s="1"/>
       <c r="F590" s="2"/>
     </row>
-    <row r="591" ht="12.75" customHeight="1">
+    <row r="591" spans="2:6" ht="12.75" customHeight="1">
       <c r="B591" s="1"/>
       <c r="F591" s="2"/>
     </row>
-    <row r="592" ht="12.75" customHeight="1">
+    <row r="592" spans="2:6" ht="12.75" customHeight="1">
       <c r="B592" s="1"/>
       <c r="F592" s="2"/>
     </row>
-    <row r="593" ht="12.75" customHeight="1">
+    <row r="593" spans="2:6" ht="12.75" customHeight="1">
       <c r="B593" s="1"/>
       <c r="F593" s="2"/>
     </row>
-    <row r="594" ht="12.75" customHeight="1">
+    <row r="594" spans="2:6" ht="12.75" customHeight="1">
       <c r="B594" s="1"/>
       <c r="F594" s="2"/>
     </row>
-    <row r="595" ht="12.75" customHeight="1">
+    <row r="595" spans="2:6" ht="12.75" customHeight="1">
       <c r="B595" s="1"/>
       <c r="F595" s="2"/>
     </row>
-    <row r="596" ht="12.75" customHeight="1">
+    <row r="596" spans="2:6" ht="12.75" customHeight="1">
       <c r="B596" s="1"/>
       <c r="F596" s="2"/>
     </row>
-    <row r="597" ht="12.75" customHeight="1">
+    <row r="597" spans="2:6" ht="12.75" customHeight="1">
       <c r="B597" s="1"/>
       <c r="F597" s="2"/>
     </row>
-    <row r="598" ht="12.75" customHeight="1">
+    <row r="598" spans="2:6" ht="12.75" customHeight="1">
       <c r="B598" s="1"/>
       <c r="F598" s="2"/>
     </row>
-    <row r="599" ht="12.75" customHeight="1">
+    <row r="599" spans="2:6" ht="12.75" customHeight="1">
       <c r="B599" s="1"/>
       <c r="F599" s="2"/>
     </row>
-    <row r="600" ht="12.75" customHeight="1">
+    <row r="600" spans="2:6" ht="12.75" customHeight="1">
       <c r="B600" s="1"/>
       <c r="F600" s="2"/>
     </row>
-    <row r="601" ht="12.75" customHeight="1">
+    <row r="601" spans="2:6" ht="12.75" customHeight="1">
       <c r="B601" s="1"/>
       <c r="F601" s="2"/>
     </row>
-    <row r="602" ht="12.75" customHeight="1">
+    <row r="602" spans="2:6" ht="12.75" customHeight="1">
       <c r="B602" s="1"/>
       <c r="F602" s="2"/>
     </row>
-    <row r="603" ht="12.75" customHeight="1">
+    <row r="603" spans="2:6" ht="12.75" customHeight="1">
       <c r="B603" s="1"/>
       <c r="F603" s="2"/>
     </row>
-    <row r="604" ht="12.75" customHeight="1">
+    <row r="604" spans="2:6" ht="12.75" customHeight="1">
       <c r="B604" s="1"/>
       <c r="F604" s="2"/>
     </row>
-    <row r="605" ht="12.75" customHeight="1">
+    <row r="605" spans="2:6" ht="12.75" customHeight="1">
       <c r="B605" s="1"/>
       <c r="F605" s="2"/>
     </row>
-    <row r="606" ht="12.75" customHeight="1">
+    <row r="606" spans="2:6" ht="12.75" customHeight="1">
       <c r="B606" s="1"/>
       <c r="F606" s="2"/>
     </row>
-    <row r="607" ht="12.75" customHeight="1">
+    <row r="607" spans="2:6" ht="12.75" customHeight="1">
       <c r="B607" s="1"/>
       <c r="F607" s="2"/>
     </row>
-    <row r="608" ht="12.75" customHeight="1">
+    <row r="608" spans="2:6" ht="12.75" customHeight="1">
       <c r="B608" s="1"/>
       <c r="F608" s="2"/>
     </row>
-    <row r="609" ht="12.75" customHeight="1">
+    <row r="609" spans="2:6" ht="12.75" customHeight="1">
       <c r="B609" s="1"/>
       <c r="F609" s="2"/>
     </row>
-    <row r="610" ht="12.75" customHeight="1">
+    <row r="610" spans="2:6" ht="12.75" customHeight="1">
       <c r="B610" s="1"/>
       <c r="F610" s="2"/>
     </row>
-    <row r="611" ht="12.75" customHeight="1">
+    <row r="611" spans="2:6" ht="12.75" customHeight="1">
       <c r="B611" s="1"/>
       <c r="F611" s="2"/>
     </row>
-    <row r="612" ht="12.75" customHeight="1">
+    <row r="612" spans="2:6" ht="12.75" customHeight="1">
       <c r="B612" s="1"/>
       <c r="F612" s="2"/>
     </row>
-    <row r="613" ht="12.75" customHeight="1">
+    <row r="613" spans="2:6" ht="12.75" customHeight="1">
       <c r="B613" s="1"/>
       <c r="F613" s="2"/>
     </row>
-    <row r="614" ht="12.75" customHeight="1">
+    <row r="614" spans="2:6" ht="12.75" customHeight="1">
       <c r="B614" s="1"/>
       <c r="F614" s="2"/>
     </row>
-    <row r="615" ht="12.75" customHeight="1">
+    <row r="615" spans="2:6" ht="12.75" customHeight="1">
       <c r="B615" s="1"/>
       <c r="F615" s="2"/>
     </row>
-    <row r="616" ht="12.75" customHeight="1">
+    <row r="616" spans="2:6" ht="12.75" customHeight="1">
       <c r="B616" s="1"/>
       <c r="F616" s="2"/>
     </row>
-    <row r="617" ht="12.75" customHeight="1">
+    <row r="617" spans="2:6" ht="12.75" customHeight="1">
       <c r="B617" s="1"/>
       <c r="F617" s="2"/>
     </row>
-    <row r="618" ht="12.75" customHeight="1">
+    <row r="618" spans="2:6" ht="12.75" customHeight="1">
       <c r="B618" s="1"/>
       <c r="F618" s="2"/>
     </row>
-    <row r="619" ht="12.75" customHeight="1">
+    <row r="619" spans="2:6" ht="12.75" customHeight="1">
       <c r="B619" s="1"/>
       <c r="F619" s="2"/>
     </row>
-    <row r="620" ht="12.75" customHeight="1">
+    <row r="620" spans="2:6" ht="12.75" customHeight="1">
       <c r="B620" s="1"/>
       <c r="F620" s="2"/>
     </row>
-    <row r="621" ht="12.75" customHeight="1">
+    <row r="621" spans="2:6" ht="12.75" customHeight="1">
       <c r="B621" s="1"/>
       <c r="F621" s="2"/>
     </row>
-    <row r="622" ht="12.75" customHeight="1">
+    <row r="622" spans="2:6" ht="12.75" customHeight="1">
       <c r="B622" s="1"/>
       <c r="F622" s="2"/>
     </row>
-    <row r="623" ht="12.75" customHeight="1">
+    <row r="623" spans="2:6" ht="12.75" customHeight="1">
       <c r="B623" s="1"/>
       <c r="F623" s="2"/>
     </row>
-    <row r="624" ht="12.75" customHeight="1">
+    <row r="624" spans="2:6" ht="12.75" customHeight="1">
       <c r="B624" s="1"/>
       <c r="F624" s="2"/>
     </row>
-    <row r="625" ht="12.75" customHeight="1">
+    <row r="625" spans="2:6" ht="12.75" customHeight="1">
       <c r="B625" s="1"/>
       <c r="F625" s="2"/>
     </row>
-    <row r="626" ht="12.75" customHeight="1">
+    <row r="626" spans="2:6" ht="12.75" customHeight="1">
       <c r="B626" s="1"/>
       <c r="F626" s="2"/>
     </row>
-    <row r="627" ht="12.75" customHeight="1">
+    <row r="627" spans="2:6" ht="12.75" customHeight="1">
       <c r="B627" s="1"/>
       <c r="F627" s="2"/>
     </row>
-    <row r="628" ht="12.75" customHeight="1">
+    <row r="628" spans="2:6" ht="12.75" customHeight="1">
       <c r="B628" s="1"/>
       <c r="F628" s="2"/>
     </row>
-    <row r="629" ht="12.75" customHeight="1">
+    <row r="629" spans="2:6" ht="12.75" customHeight="1">
       <c r="B629" s="1"/>
       <c r="F629" s="2"/>
     </row>
-    <row r="630" ht="12.75" customHeight="1">
+    <row r="630" spans="2:6" ht="12.75" customHeight="1">
       <c r="B630" s="1"/>
       <c r="F630" s="2"/>
     </row>
-    <row r="631" ht="12.75" customHeight="1">
+    <row r="631" spans="2:6" ht="12.75" customHeight="1">
       <c r="B631" s="1"/>
       <c r="F631" s="2"/>
     </row>
-    <row r="632" ht="12.75" customHeight="1">
+    <row r="632" spans="2:6" ht="12.75" customHeight="1">
       <c r="B632" s="1"/>
       <c r="F632" s="2"/>
     </row>
-    <row r="633" ht="12.75" customHeight="1">
+    <row r="633" spans="2:6" ht="12.75" customHeight="1">
       <c r="B633" s="1"/>
       <c r="F633" s="2"/>
     </row>
-    <row r="634" ht="12.75" customHeight="1">
+    <row r="634" spans="2:6" ht="12.75" customHeight="1">
       <c r="B634" s="1"/>
       <c r="F634" s="2"/>
     </row>
-    <row r="635" ht="12.75" customHeight="1">
+    <row r="635" spans="2:6" ht="12.75" customHeight="1">
       <c r="B635" s="1"/>
       <c r="F635" s="2"/>
     </row>
-    <row r="636" ht="12.75" customHeight="1">
+    <row r="636" spans="2:6" ht="12.75" customHeight="1">
       <c r="B636" s="1"/>
       <c r="F636" s="2"/>
     </row>
-    <row r="637" ht="12.75" customHeight="1">
+    <row r="637" spans="2:6" ht="12.75" customHeight="1">
       <c r="B637" s="1"/>
       <c r="F637" s="2"/>
     </row>
-    <row r="638" ht="12.75" customHeight="1">
+    <row r="638" spans="2:6" ht="12.75" customHeight="1">
       <c r="B638" s="1"/>
       <c r="F638" s="2"/>
     </row>
-    <row r="639" ht="12.75" customHeight="1">
+    <row r="639" spans="2:6" ht="12.75" customHeight="1">
       <c r="B639" s="1"/>
       <c r="F639" s="2"/>
     </row>
-    <row r="640" ht="12.75" customHeight="1">
+    <row r="640" spans="2:6" ht="12.75" customHeight="1">
       <c r="B640" s="1"/>
       <c r="F640" s="2"/>
     </row>
-    <row r="641" ht="12.75" customHeight="1">
+    <row r="641" spans="2:6" ht="12.75" customHeight="1">
       <c r="B641" s="1"/>
       <c r="F641" s="2"/>
     </row>
-    <row r="642" ht="12.75" customHeight="1">
+    <row r="642" spans="2:6" ht="12.75" customHeight="1">
       <c r="B642" s="1"/>
       <c r="F642" s="2"/>
     </row>
-    <row r="643" ht="12.75" customHeight="1">
+    <row r="643" spans="2:6" ht="12.75" customHeight="1">
       <c r="B643" s="1"/>
       <c r="F643" s="2"/>
     </row>
-    <row r="644" ht="12.75" customHeight="1">
+    <row r="644" spans="2:6" ht="12.75" customHeight="1">
       <c r="B644" s="1"/>
       <c r="F644" s="2"/>
     </row>
-    <row r="645" ht="12.75" customHeight="1">
+    <row r="645" spans="2:6" ht="12.75" customHeight="1">
       <c r="B645" s="1"/>
       <c r="F645" s="2"/>
     </row>
-    <row r="646" ht="12.75" customHeight="1">
+    <row r="646" spans="2:6" ht="12.75" customHeight="1">
       <c r="B646" s="1"/>
       <c r="F646" s="2"/>
     </row>
-    <row r="647" ht="12.75" customHeight="1">
+    <row r="647" spans="2:6" ht="12.75" customHeight="1">
       <c r="B647" s="1"/>
       <c r="F647" s="2"/>
     </row>
-    <row r="648" ht="12.75" customHeight="1">
+    <row r="648" spans="2:6" ht="12.75" customHeight="1">
       <c r="B648" s="1"/>
       <c r="F648" s="2"/>
     </row>
-    <row r="649" ht="12.75" customHeight="1">
+    <row r="649" spans="2:6" ht="12.75" customHeight="1">
       <c r="B649" s="1"/>
       <c r="F649" s="2"/>
     </row>
-    <row r="650" ht="12.75" customHeight="1">
+    <row r="650" spans="2:6" ht="12.75" customHeight="1">
       <c r="B650" s="1"/>
       <c r="F650" s="2"/>
     </row>
-    <row r="651" ht="12.75" customHeight="1">
+    <row r="651" spans="2:6" ht="12.75" customHeight="1">
       <c r="B651" s="1"/>
       <c r="F651" s="2"/>
     </row>
-    <row r="652" ht="12.75" customHeight="1">
+    <row r="652" spans="2:6" ht="12.75" customHeight="1">
       <c r="B652" s="1"/>
       <c r="F652" s="2"/>
     </row>
-    <row r="653" ht="12.75" customHeight="1">
+    <row r="653" spans="2:6" ht="12.75" customHeight="1">
       <c r="B653" s="1"/>
       <c r="F653" s="2"/>
     </row>
-    <row r="654" ht="12.75" customHeight="1">
+    <row r="654" spans="2:6" ht="12.75" customHeight="1">
       <c r="B654" s="1"/>
       <c r="F654" s="2"/>
     </row>
-    <row r="655" ht="12.75" customHeight="1">
+    <row r="655" spans="2:6" ht="12.75" customHeight="1">
       <c r="B655" s="1"/>
       <c r="F655" s="2"/>
     </row>
-    <row r="656" ht="12.75" customHeight="1">
+    <row r="656" spans="2:6" ht="12.75" customHeight="1">
       <c r="B656" s="1"/>
       <c r="F656" s="2"/>
     </row>
-    <row r="657" ht="12.75" customHeight="1">
+    <row r="657" spans="2:6" ht="12.75" customHeight="1">
       <c r="B657" s="1"/>
       <c r="F657" s="2"/>
     </row>
-    <row r="658" ht="12.75" customHeight="1">
+    <row r="658" spans="2:6" ht="12.75" customHeight="1">
       <c r="B658" s="1"/>
       <c r="F658" s="2"/>
     </row>
-    <row r="659" ht="12.75" customHeight="1">
+    <row r="659" spans="2:6" ht="12.75" customHeight="1">
       <c r="B659" s="1"/>
       <c r="F659" s="2"/>
     </row>
-    <row r="660" ht="12.75" customHeight="1">
+    <row r="660" spans="2:6" ht="12.75" customHeight="1">
       <c r="B660" s="1"/>
       <c r="F660" s="2"/>
     </row>
-    <row r="661" ht="12.75" customHeight="1">
+    <row r="661" spans="2:6" ht="12.75" customHeight="1">
       <c r="B661" s="1"/>
       <c r="F661" s="2"/>
     </row>
-    <row r="662" ht="12.75" customHeight="1">
+    <row r="662" spans="2:6" ht="12.75" customHeight="1">
       <c r="B662" s="1"/>
       <c r="F662" s="2"/>
     </row>
-    <row r="663" ht="12.75" customHeight="1">
+    <row r="663" spans="2:6" ht="12.75" customHeight="1">
       <c r="B663" s="1"/>
       <c r="F663" s="2"/>
     </row>
-    <row r="664" ht="12.75" customHeight="1">
+    <row r="664" spans="2:6" ht="12.75" customHeight="1">
       <c r="B664" s="1"/>
       <c r="F664" s="2"/>
     </row>
-    <row r="665" ht="12.75" customHeight="1">
+    <row r="665" spans="2:6" ht="12.75" customHeight="1">
       <c r="B665" s="1"/>
       <c r="F665" s="2"/>
     </row>
-    <row r="666" ht="12.75" customHeight="1">
+    <row r="666" spans="2:6" ht="12.75" customHeight="1">
       <c r="B666" s="1"/>
       <c r="F666" s="2"/>
     </row>
-    <row r="667" ht="12.75" customHeight="1">
+    <row r="667" spans="2:6" ht="12.75" customHeight="1">
       <c r="B667" s="1"/>
       <c r="F667" s="2"/>
     </row>
-    <row r="668" ht="12.75" customHeight="1">
+    <row r="668" spans="2:6" ht="12.75" customHeight="1">
       <c r="B668" s="1"/>
       <c r="F668" s="2"/>
     </row>
-    <row r="669" ht="12.75" customHeight="1">
+    <row r="669" spans="2:6" ht="12.75" customHeight="1">
       <c r="B669" s="1"/>
       <c r="F669" s="2"/>
     </row>
-    <row r="670" ht="12.75" customHeight="1">
+    <row r="670" spans="2:6" ht="12.75" customHeight="1">
       <c r="B670" s="1"/>
       <c r="F670" s="2"/>
     </row>
-    <row r="671" ht="12.75" customHeight="1">
+    <row r="671" spans="2:6" ht="12.75" customHeight="1">
       <c r="B671" s="1"/>
       <c r="F671" s="2"/>
     </row>
-    <row r="672" ht="12.75" customHeight="1">
+    <row r="672" spans="2:6" ht="12.75" customHeight="1">
       <c r="B672" s="1"/>
       <c r="F672" s="2"/>
     </row>
-    <row r="673" ht="12.75" customHeight="1">
+    <row r="673" spans="2:6" ht="12.75" customHeight="1">
       <c r="B673" s="1"/>
       <c r="F673" s="2"/>
     </row>
-    <row r="674" ht="12.75" customHeight="1">
+    <row r="674" spans="2:6" ht="12.75" customHeight="1">
       <c r="B674" s="1"/>
       <c r="F674" s="2"/>
     </row>
-    <row r="675" ht="12.75" customHeight="1">
+    <row r="675" spans="2:6" ht="12.75" customHeight="1">
       <c r="B675" s="1"/>
       <c r="F675" s="2"/>
     </row>
-    <row r="676" ht="12.75" customHeight="1">
+    <row r="676" spans="2:6" ht="12.75" customHeight="1">
       <c r="B676" s="1"/>
       <c r="F676" s="2"/>
     </row>
-    <row r="677" ht="12.75" customHeight="1">
+    <row r="677" spans="2:6" ht="12.75" customHeight="1">
       <c r="B677" s="1"/>
       <c r="F677" s="2"/>
     </row>
-    <row r="678" ht="12.75" customHeight="1">
+    <row r="678" spans="2:6" ht="12.75" customHeight="1">
       <c r="B678" s="1"/>
       <c r="F678" s="2"/>
     </row>
-    <row r="679" ht="12.75" customHeight="1">
+    <row r="679" spans="2:6" ht="12.75" customHeight="1">
       <c r="B679" s="1"/>
       <c r="F679" s="2"/>
     </row>
-    <row r="680" ht="12.75" customHeight="1">
+    <row r="680" spans="2:6" ht="12.75" customHeight="1">
       <c r="B680" s="1"/>
       <c r="F680" s="2"/>
     </row>
-    <row r="681" ht="12.75" customHeight="1">
+    <row r="681" spans="2:6" ht="12.75" customHeight="1">
       <c r="B681" s="1"/>
       <c r="F681" s="2"/>
     </row>
-    <row r="682" ht="12.75" customHeight="1">
+    <row r="682" spans="2:6" ht="12.75" customHeight="1">
       <c r="B682" s="1"/>
       <c r="F682" s="2"/>
     </row>
-    <row r="683" ht="12.75" customHeight="1">
+    <row r="683" spans="2:6" ht="12.75" customHeight="1">
       <c r="B683" s="1"/>
       <c r="F683" s="2"/>
     </row>
-    <row r="684" ht="12.75" customHeight="1">
+    <row r="684" spans="2:6" ht="12.75" customHeight="1">
       <c r="B684" s="1"/>
       <c r="F684" s="2"/>
     </row>
-    <row r="685" ht="12.75" customHeight="1">
+    <row r="685" spans="2:6" ht="12.75" customHeight="1">
       <c r="B685" s="1"/>
       <c r="F685" s="2"/>
     </row>
-    <row r="686" ht="12.75" customHeight="1">
+    <row r="686" spans="2:6" ht="12.75" customHeight="1">
       <c r="B686" s="1"/>
       <c r="F686" s="2"/>
     </row>
-    <row r="687" ht="12.75" customHeight="1">
+    <row r="687" spans="2:6" ht="12.75" customHeight="1">
       <c r="B687" s="1"/>
       <c r="F687" s="2"/>
     </row>
-    <row r="688" ht="12.75" customHeight="1">
+    <row r="688" spans="2:6" ht="12.75" customHeight="1">
       <c r="B688" s="1"/>
       <c r="F688" s="2"/>
     </row>
-    <row r="689" ht="12.75" customHeight="1">
+    <row r="689" spans="2:6" ht="12.75" customHeight="1">
       <c r="B689" s="1"/>
       <c r="F689" s="2"/>
     </row>
-    <row r="690" ht="12.75" customHeight="1">
+    <row r="690" spans="2:6" ht="12.75" customHeight="1">
       <c r="B690" s="1"/>
       <c r="F690" s="2"/>
     </row>
-    <row r="691" ht="12.75" customHeight="1">
+    <row r="691" spans="2:6" ht="12.75" customHeight="1">
       <c r="B691" s="1"/>
       <c r="F691" s="2"/>
     </row>
-    <row r="692" ht="12.75" customHeight="1">
+    <row r="692" spans="2:6" ht="12.75" customHeight="1">
       <c r="B692" s="1"/>
       <c r="F692" s="2"/>
     </row>
-    <row r="693" ht="12.75" customHeight="1">
+    <row r="693" spans="2:6" ht="12.75" customHeight="1">
       <c r="B693" s="1"/>
       <c r="F693" s="2"/>
     </row>
-    <row r="694" ht="12.75" customHeight="1">
+    <row r="694" spans="2:6" ht="12.75" customHeight="1">
       <c r="B694" s="1"/>
       <c r="F694" s="2"/>
     </row>
-    <row r="695" ht="12.75" customHeight="1">
+    <row r="695" spans="2:6" ht="12.75" customHeight="1">
       <c r="B695" s="1"/>
       <c r="F695" s="2"/>
     </row>
-    <row r="696" ht="12.75" customHeight="1">
+    <row r="696" spans="2:6" ht="12.75" customHeight="1">
       <c r="B696" s="1"/>
       <c r="F696" s="2"/>
     </row>
-    <row r="697" ht="12.75" customHeight="1">
+    <row r="697" spans="2:6" ht="12.75" customHeight="1">
       <c r="B697" s="1"/>
       <c r="F697" s="2"/>
     </row>
-    <row r="698" ht="12.75" customHeight="1">
+    <row r="698" spans="2:6" ht="12.75" customHeight="1">
       <c r="B698" s="1"/>
       <c r="F698" s="2"/>
     </row>
-    <row r="699" ht="12.75" customHeight="1">
+    <row r="699" spans="2:6" ht="12.75" customHeight="1">
       <c r="B699" s="1"/>
       <c r="F699" s="2"/>
     </row>
-    <row r="700" ht="12.75" customHeight="1">
+    <row r="700" spans="2:6" ht="12.75" customHeight="1">
       <c r="B700" s="1"/>
       <c r="F700" s="2"/>
     </row>
-    <row r="701" ht="12.75" customHeight="1">
+    <row r="701" spans="2:6" ht="12.75" customHeight="1">
       <c r="B701" s="1"/>
       <c r="F701" s="2"/>
     </row>
-    <row r="702" ht="12.75" customHeight="1">
+    <row r="702" spans="2:6" ht="12.75" customHeight="1">
       <c r="B702" s="1"/>
       <c r="F702" s="2"/>
     </row>
-    <row r="703" ht="12.75" customHeight="1">
+    <row r="703" spans="2:6" ht="12.75" customHeight="1">
       <c r="B703" s="1"/>
       <c r="F703" s="2"/>
     </row>
-    <row r="704" ht="12.75" customHeight="1">
+    <row r="704" spans="2:6" ht="12.75" customHeight="1">
       <c r="B704" s="1"/>
       <c r="F704" s="2"/>
     </row>
-    <row r="705" ht="12.75" customHeight="1">
+    <row r="705" spans="2:6" ht="12.75" customHeight="1">
       <c r="B705" s="1"/>
       <c r="F705" s="2"/>
     </row>
-    <row r="706" ht="12.75" customHeight="1">
+    <row r="706" spans="2:6" ht="12.75" customHeight="1">
       <c r="B706" s="1"/>
       <c r="F706" s="2"/>
     </row>
-    <row r="707" ht="12.75" customHeight="1">
+    <row r="707" spans="2:6" ht="12.75" customHeight="1">
       <c r="B707" s="1"/>
       <c r="F707" s="2"/>
     </row>
-    <row r="708" ht="12.75" customHeight="1">
+    <row r="708" spans="2:6" ht="12.75" customHeight="1">
       <c r="B708" s="1"/>
       <c r="F708" s="2"/>
     </row>
-    <row r="709" ht="12.75" customHeight="1">
+    <row r="709" spans="2:6" ht="12.75" customHeight="1">
       <c r="B709" s="1"/>
       <c r="F709" s="2"/>
     </row>
-    <row r="710" ht="12.75" customHeight="1">
+    <row r="710" spans="2:6" ht="12.75" customHeight="1">
       <c r="B710" s="1"/>
       <c r="F710" s="2"/>
     </row>
-    <row r="711" ht="12.75" customHeight="1">
+    <row r="711" spans="2:6" ht="12.75" customHeight="1">
       <c r="B711" s="1"/>
       <c r="F711" s="2"/>
     </row>
-    <row r="712" ht="12.75" customHeight="1">
+    <row r="712" spans="2:6" ht="12.75" customHeight="1">
       <c r="B712" s="1"/>
       <c r="F712" s="2"/>
     </row>
-    <row r="713" ht="12.75" customHeight="1">
+    <row r="713" spans="2:6" ht="12.75" customHeight="1">
       <c r="B713" s="1"/>
       <c r="F713" s="2"/>
     </row>
-    <row r="714" ht="12.75" customHeight="1">
+    <row r="714" spans="2:6" ht="12.75" customHeight="1">
       <c r="B714" s="1"/>
       <c r="F714" s="2"/>
     </row>
-    <row r="715" ht="12.75" customHeight="1">
+    <row r="715" spans="2:6" ht="12.75" customHeight="1">
       <c r="B715" s="1"/>
       <c r="F715" s="2"/>
     </row>
-    <row r="716" ht="12.75" customHeight="1">
+    <row r="716" spans="2:6" ht="12.75" customHeight="1">
       <c r="B716" s="1"/>
       <c r="F716" s="2"/>
     </row>
-    <row r="717" ht="12.75" customHeight="1">
+    <row r="717" spans="2:6" ht="12.75" customHeight="1">
       <c r="B717" s="1"/>
       <c r="F717" s="2"/>
     </row>
-    <row r="718" ht="12.75" customHeight="1">
+    <row r="718" spans="2:6" ht="12.75" customHeight="1">
       <c r="B718" s="1"/>
       <c r="F718" s="2"/>
     </row>
-    <row r="719" ht="12.75" customHeight="1">
+    <row r="719" spans="2:6" ht="12.75" customHeight="1">
       <c r="B719" s="1"/>
       <c r="F719" s="2"/>
     </row>
-    <row r="720" ht="12.75" customHeight="1">
+    <row r="720" spans="2:6" ht="12.75" customHeight="1">
       <c r="B720" s="1"/>
       <c r="F720" s="2"/>
     </row>
-    <row r="721" ht="12.75" customHeight="1">
+    <row r="721" spans="2:6" ht="12.75" customHeight="1">
       <c r="B721" s="1"/>
       <c r="F721" s="2"/>
     </row>
-    <row r="722" ht="12.75" customHeight="1">
+    <row r="722" spans="2:6" ht="12.75" customHeight="1">
       <c r="B722" s="1"/>
       <c r="F722" s="2"/>
     </row>
-    <row r="723" ht="12.75" customHeight="1">
+    <row r="723" spans="2:6" ht="12.75" customHeight="1">
       <c r="B723" s="1"/>
       <c r="F723" s="2"/>
     </row>
-    <row r="724" ht="12.75" customHeight="1">
+    <row r="724" spans="2:6" ht="12.75" customHeight="1">
       <c r="B724" s="1"/>
       <c r="F724" s="2"/>
     </row>
-    <row r="725" ht="12.75" customHeight="1">
+    <row r="725" spans="2:6" ht="12.75" customHeight="1">
       <c r="B725" s="1"/>
       <c r="F725" s="2"/>
     </row>
-    <row r="726" ht="12.75" customHeight="1">
+    <row r="726" spans="2:6" ht="12.75" customHeight="1">
       <c r="B726" s="1"/>
       <c r="F726" s="2"/>
     </row>
-    <row r="727" ht="12.75" customHeight="1">
+    <row r="727" spans="2:6" ht="12.75" customHeight="1">
       <c r="B727" s="1"/>
       <c r="F727" s="2"/>
     </row>
-    <row r="728" ht="12.75" customHeight="1">
+    <row r="728" spans="2:6" ht="12.75" customHeight="1">
       <c r="B728" s="1"/>
       <c r="F728" s="2"/>
     </row>
-    <row r="729" ht="12.75" customHeight="1">
+    <row r="729" spans="2:6" ht="12.75" customHeight="1">
       <c r="B729" s="1"/>
       <c r="F729" s="2"/>
     </row>
-    <row r="730" ht="12.75" customHeight="1">
+    <row r="730" spans="2:6" ht="12.75" customHeight="1">
       <c r="B730" s="1"/>
       <c r="F730" s="2"/>
     </row>
-    <row r="731" ht="12.75" customHeight="1">
+    <row r="731" spans="2:6" ht="12.75" customHeight="1">
       <c r="B731" s="1"/>
       <c r="F731" s="2"/>
     </row>
-    <row r="732" ht="12.75" customHeight="1">
+    <row r="732" spans="2:6" ht="12.75" customHeight="1">
       <c r="B732" s="1"/>
       <c r="F732" s="2"/>
     </row>
-    <row r="733" ht="12.75" customHeight="1">
+    <row r="733" spans="2:6" ht="12.75" customHeight="1">
       <c r="B733" s="1"/>
       <c r="F733" s="2"/>
     </row>
-    <row r="734" ht="12.75" customHeight="1">
+    <row r="734" spans="2:6" ht="12.75" customHeight="1">
       <c r="B734" s="1"/>
       <c r="F734" s="2"/>
     </row>
-    <row r="735" ht="12.75" customHeight="1">
+    <row r="735" spans="2:6" ht="12.75" customHeight="1">
       <c r="B735" s="1"/>
       <c r="F735" s="2"/>
     </row>
-    <row r="736" ht="12.75" customHeight="1">
+    <row r="736" spans="2:6" ht="12.75" customHeight="1">
       <c r="B736" s="1"/>
       <c r="F736" s="2"/>
     </row>
-    <row r="737" ht="12.75" customHeight="1">
+    <row r="737" spans="2:6" ht="12.75" customHeight="1">
       <c r="B737" s="1"/>
       <c r="F737" s="2"/>
     </row>
-    <row r="738" ht="12.75" customHeight="1">
+    <row r="738" spans="2:6" ht="12.75" customHeight="1">
       <c r="B738" s="1"/>
       <c r="F738" s="2"/>
     </row>
-    <row r="739" ht="12.75" customHeight="1">
+    <row r="739" spans="2:6" ht="12.75" customHeight="1">
       <c r="B739" s="1"/>
       <c r="F739" s="2"/>
     </row>
-    <row r="740" ht="12.75" customHeight="1">
+    <row r="740" spans="2:6" ht="12.75" customHeight="1">
       <c r="B740" s="1"/>
       <c r="F740" s="2"/>
     </row>
-    <row r="741" ht="12.75" customHeight="1">
+    <row r="741" spans="2:6" ht="12.75" customHeight="1">
       <c r="B741" s="1"/>
       <c r="F741" s="2"/>
     </row>
-    <row r="742" ht="12.75" customHeight="1">
+    <row r="742" spans="2:6" ht="12.75" customHeight="1">
       <c r="B742" s="1"/>
       <c r="F742" s="2"/>
     </row>
-    <row r="743" ht="12.75" customHeight="1">
+    <row r="743" spans="2:6" ht="12.75" customHeight="1">
       <c r="B743" s="1"/>
       <c r="F743" s="2"/>
     </row>
-    <row r="744" ht="12.75" customHeight="1">
+    <row r="744" spans="2:6" ht="12.75" customHeight="1">
       <c r="B744" s="1"/>
       <c r="F744" s="2"/>
     </row>
-    <row r="745" ht="12.75" customHeight="1">
+    <row r="745" spans="2:6" ht="12.75" customHeight="1">
       <c r="B745" s="1"/>
       <c r="F745" s="2"/>
     </row>
-    <row r="746" ht="12.75" customHeight="1">
+    <row r="746" spans="2:6" ht="12.75" customHeight="1">
       <c r="B746" s="1"/>
       <c r="F746" s="2"/>
     </row>
-    <row r="747" ht="12.75" customHeight="1">
+    <row r="747" spans="2:6" ht="12.75" customHeight="1">
       <c r="B747" s="1"/>
       <c r="F747" s="2"/>
     </row>
-    <row r="748" ht="12.75" customHeight="1">
+    <row r="748" spans="2:6" ht="12.75" customHeight="1">
       <c r="B748" s="1"/>
       <c r="F748" s="2"/>
     </row>
-    <row r="749" ht="12.75" customHeight="1">
+    <row r="749" spans="2:6" ht="12.75" customHeight="1">
       <c r="B749" s="1"/>
       <c r="F749" s="2"/>
     </row>
-    <row r="750" ht="12.75" customHeight="1">
+    <row r="750" spans="2:6" ht="12.75" customHeight="1">
       <c r="B750" s="1"/>
       <c r="F750" s="2"/>
     </row>
-    <row r="751" ht="12.75" customHeight="1">
+    <row r="751" spans="2:6" ht="12.75" customHeight="1">
       <c r="B751" s="1"/>
       <c r="F751" s="2"/>
     </row>
-    <row r="752" ht="12.75" customHeight="1">
+    <row r="752" spans="2:6" ht="12.75" customHeight="1">
       <c r="B752" s="1"/>
       <c r="F752" s="2"/>
     </row>
-    <row r="753" ht="12.75" customHeight="1">
+    <row r="753" spans="2:6" ht="12.75" customHeight="1">
       <c r="B753" s="1"/>
       <c r="F753" s="2"/>
     </row>
-    <row r="754" ht="12.75" customHeight="1">
+    <row r="754" spans="2:6" ht="12.75" customHeight="1">
       <c r="B754" s="1"/>
       <c r="F754" s="2"/>
     </row>
-    <row r="755" ht="12.75" customHeight="1">
+    <row r="755" spans="2:6" ht="12.75" customHeight="1">
       <c r="B755" s="1"/>
       <c r="F755" s="2"/>
     </row>
-    <row r="756" ht="12.75" customHeight="1">
+    <row r="756" spans="2:6" ht="12.75" customHeight="1">
       <c r="B756" s="1"/>
       <c r="F756" s="2"/>
     </row>
-    <row r="757" ht="12.75" customHeight="1">
+    <row r="757" spans="2:6" ht="12.75" customHeight="1">
       <c r="B757" s="1"/>
       <c r="F757" s="2"/>
     </row>
-    <row r="758" ht="12.75" customHeight="1">
+    <row r="758" spans="2:6" ht="12.75" customHeight="1">
       <c r="B758" s="1"/>
       <c r="F758" s="2"/>
     </row>
-    <row r="759" ht="12.75" customHeight="1">
+    <row r="759" spans="2:6" ht="12.75" customHeight="1">
       <c r="B759" s="1"/>
       <c r="F759" s="2"/>
     </row>
-    <row r="760" ht="12.75" customHeight="1">
+    <row r="760" spans="2:6" ht="12.75" customHeight="1">
       <c r="B760" s="1"/>
       <c r="F760" s="2"/>
     </row>
-    <row r="761" ht="12.75" customHeight="1">
+    <row r="761" spans="2:6" ht="12.75" customHeight="1">
       <c r="B761" s="1"/>
       <c r="F761" s="2"/>
     </row>
-    <row r="762" ht="12.75" customHeight="1">
+    <row r="762" spans="2:6" ht="12.75" customHeight="1">
       <c r="B762" s="1"/>
       <c r="F762" s="2"/>
     </row>
-    <row r="763" ht="12.75" customHeight="1">
+    <row r="763" spans="2:6" ht="12.75" customHeight="1">
       <c r="B763" s="1"/>
       <c r="F763" s="2"/>
     </row>
-    <row r="764" ht="12.75" customHeight="1">
+    <row r="764" spans="2:6" ht="12.75" customHeight="1">
       <c r="B764" s="1"/>
       <c r="F764" s="2"/>
     </row>
-    <row r="765" ht="12.75" customHeight="1">
+    <row r="765" spans="2:6" ht="12.75" customHeight="1">
       <c r="B765" s="1"/>
       <c r="F765" s="2"/>
     </row>
-    <row r="766" ht="12.75" customHeight="1">
+    <row r="766" spans="2:6" ht="12.75" customHeight="1">
       <c r="B766" s="1"/>
       <c r="F766" s="2"/>
     </row>
-    <row r="767" ht="12.75" customHeight="1">
+    <row r="767" spans="2:6" ht="12.75" customHeight="1">
       <c r="B767" s="1"/>
       <c r="F767" s="2"/>
     </row>
-    <row r="768" ht="12.75" customHeight="1">
+    <row r="768" spans="2:6" ht="12.75" customHeight="1">
       <c r="B768" s="1"/>
       <c r="F768" s="2"/>
     </row>
-    <row r="769" ht="12.75" customHeight="1">
+    <row r="769" spans="2:6" ht="12.75" customHeight="1">
       <c r="B769" s="1"/>
       <c r="F769" s="2"/>
     </row>
-    <row r="770" ht="12.75" customHeight="1">
+    <row r="770" spans="2:6" ht="12.75" customHeight="1">
       <c r="B770" s="1"/>
       <c r="F770" s="2"/>
     </row>
-    <row r="771" ht="12.75" customHeight="1">
+    <row r="771" spans="2:6" ht="12.75" customHeight="1">
       <c r="B771" s="1"/>
       <c r="F771" s="2"/>
     </row>
-    <row r="772" ht="12.75" customHeight="1">
+    <row r="772" spans="2:6" ht="12.75" customHeight="1">
       <c r="B772" s="1"/>
       <c r="F772" s="2"/>
     </row>
-    <row r="773" ht="12.75" customHeight="1">
+    <row r="773" spans="2:6" ht="12.75" customHeight="1">
       <c r="B773" s="1"/>
       <c r="F773" s="2"/>
     </row>
-    <row r="774" ht="12.75" customHeight="1">
+    <row r="774" spans="2:6" ht="12.75" customHeight="1">
       <c r="B774" s="1"/>
       <c r="F774" s="2"/>
     </row>
-    <row r="775" ht="12.75" customHeight="1">
+    <row r="775" spans="2:6" ht="12.75" customHeight="1">
       <c r="B775" s="1"/>
       <c r="F775" s="2"/>
     </row>
-    <row r="776" ht="12.75" customHeight="1">
+    <row r="776" spans="2:6" ht="12.75" customHeight="1">
       <c r="B776" s="1"/>
       <c r="F776" s="2"/>
     </row>
-    <row r="777" ht="12.75" customHeight="1">
+    <row r="777" spans="2:6" ht="12.75" customHeight="1">
       <c r="B777" s="1"/>
       <c r="F777" s="2"/>
     </row>
-    <row r="778" ht="12.75" customHeight="1">
+    <row r="778" spans="2:6" ht="12.75" customHeight="1">
       <c r="B778" s="1"/>
       <c r="F778" s="2"/>
     </row>
-    <row r="779" ht="12.75" customHeight="1">
+    <row r="779" spans="2:6" ht="12.75" customHeight="1">
       <c r="B779" s="1"/>
       <c r="F779" s="2"/>
     </row>
-    <row r="780" ht="12.75" customHeight="1">
+    <row r="780" spans="2:6" ht="12.75" customHeight="1">
       <c r="B780" s="1"/>
       <c r="F780" s="2"/>
     </row>
-    <row r="781" ht="12.75" customHeight="1">
+    <row r="781" spans="2:6" ht="12.75" customHeight="1">
       <c r="B781" s="1"/>
       <c r="F781" s="2"/>
     </row>
-    <row r="782" ht="12.75" customHeight="1">
+    <row r="782" spans="2:6" ht="12.75" customHeight="1">
       <c r="B782" s="1"/>
       <c r="F782" s="2"/>
     </row>
-    <row r="783" ht="12.75" customHeight="1">
+    <row r="783" spans="2:6" ht="12.75" customHeight="1">
       <c r="B783" s="1"/>
       <c r="F783" s="2"/>
     </row>
-    <row r="784" ht="12.75" customHeight="1">
+    <row r="784" spans="2:6" ht="12.75" customHeight="1">
       <c r="B784" s="1"/>
       <c r="F784" s="2"/>
     </row>
-    <row r="785" ht="12.75" customHeight="1">
+    <row r="785" spans="2:6" ht="12.75" customHeight="1">
       <c r="B785" s="1"/>
       <c r="F785" s="2"/>
     </row>
-    <row r="786" ht="12.75" customHeight="1">
+    <row r="786" spans="2:6" ht="12.75" customHeight="1">
       <c r="B786" s="1"/>
       <c r="F786" s="2"/>
     </row>
-    <row r="787" ht="12.75" customHeight="1">
+    <row r="787" spans="2:6" ht="12.75" customHeight="1">
       <c r="B787" s="1"/>
       <c r="F787" s="2"/>
     </row>
-    <row r="788" ht="12.75" customHeight="1">
+    <row r="788" spans="2:6" ht="12.75" customHeight="1">
       <c r="B788" s="1"/>
       <c r="F788" s="2"/>
     </row>
-    <row r="789" ht="12.75" customHeight="1">
+    <row r="789" spans="2:6" ht="12.75" customHeight="1">
       <c r="B789" s="1"/>
       <c r="F789" s="2"/>
     </row>
-    <row r="790" ht="12.75" customHeight="1">
+    <row r="790" spans="2:6" ht="12.75" customHeight="1">
       <c r="B790" s="1"/>
       <c r="F790" s="2"/>
     </row>
-    <row r="791" ht="12.75" customHeight="1">
+    <row r="791" spans="2:6" ht="12.75" customHeight="1">
       <c r="B791" s="1"/>
       <c r="F791" s="2"/>
     </row>
-    <row r="792" ht="12.75" customHeight="1">
+    <row r="792" spans="2:6" ht="12.75" customHeight="1">
       <c r="B792" s="1"/>
       <c r="F792" s="2"/>
     </row>
-    <row r="793" ht="12.75" customHeight="1">
+    <row r="793" spans="2:6" ht="12.75" customHeight="1">
       <c r="B793" s="1"/>
       <c r="F793" s="2"/>
     </row>
-    <row r="794" ht="12.75" customHeight="1">
+    <row r="794" spans="2:6" ht="12.75" customHeight="1">
       <c r="B794" s="1"/>
       <c r="F794" s="2"/>
     </row>
-    <row r="795" ht="12.75" customHeight="1">
+    <row r="795" spans="2:6" ht="12.75" customHeight="1">
       <c r="B795" s="1"/>
       <c r="F795" s="2"/>
     </row>
-    <row r="796" ht="12.75" customHeight="1">
+    <row r="796" spans="2:6" ht="12.75" customHeight="1">
       <c r="B796" s="1"/>
       <c r="F796" s="2"/>
     </row>
-    <row r="797" ht="12.75" customHeight="1">
+    <row r="797" spans="2:6" ht="12.75" customHeight="1">
       <c r="B797" s="1"/>
       <c r="F797" s="2"/>
     </row>
-    <row r="798" ht="12.75" customHeight="1">
+    <row r="798" spans="2:6" ht="12.75" customHeight="1">
       <c r="B798" s="1"/>
       <c r="F798" s="2"/>
     </row>
-    <row r="799" ht="12.75" customHeight="1">
+    <row r="799" spans="2:6" ht="12.75" customHeight="1">
       <c r="B799" s="1"/>
       <c r="F799" s="2"/>
     </row>
-    <row r="800" ht="12.75" customHeight="1">
+    <row r="800" spans="2:6" ht="12.75" customHeight="1">
       <c r="B800" s="1"/>
       <c r="F800" s="2"/>
     </row>
-    <row r="801" ht="12.75" customHeight="1">
+    <row r="801" spans="2:6" ht="12.75" customHeight="1">
       <c r="B801" s="1"/>
       <c r="F801" s="2"/>
     </row>
-    <row r="802" ht="12.75" customHeight="1">
+    <row r="802" spans="2:6" ht="12.75" customHeight="1">
       <c r="B802" s="1"/>
       <c r="F802" s="2"/>
     </row>
-    <row r="803" ht="12.75" customHeight="1">
+    <row r="803" spans="2:6" ht="12.75" customHeight="1">
       <c r="B803" s="1"/>
       <c r="F803" s="2"/>
     </row>
-    <row r="804" ht="12.75" customHeight="1">
+    <row r="804" spans="2:6" ht="12.75" customHeight="1">
       <c r="B804" s="1"/>
       <c r="F804" s="2"/>
     </row>
-    <row r="805" ht="12.75" customHeight="1">
+    <row r="805" spans="2:6" ht="12.75" customHeight="1">
       <c r="B805" s="1"/>
       <c r="F805" s="2"/>
     </row>
-    <row r="806" ht="12.75" customHeight="1">
+    <row r="806" spans="2:6" ht="12.75" customHeight="1">
       <c r="B806" s="1"/>
       <c r="F806" s="2"/>
     </row>
-    <row r="807" ht="12.75" customHeight="1">
+    <row r="807" spans="2:6" ht="12.75" customHeight="1">
       <c r="B807" s="1"/>
       <c r="F807" s="2"/>
     </row>
-    <row r="808" ht="12.75" customHeight="1">
+    <row r="808" spans="2:6" ht="12.75" customHeight="1">
       <c r="B808" s="1"/>
       <c r="F808" s="2"/>
     </row>
-    <row r="809" ht="12.75" customHeight="1">
+    <row r="809" spans="2:6" ht="12.75" customHeight="1">
       <c r="B809" s="1"/>
       <c r="F809" s="2"/>
     </row>
-    <row r="810" ht="12.75" customHeight="1">
+    <row r="810" spans="2:6" ht="12.75" customHeight="1">
       <c r="B810" s="1"/>
       <c r="F810" s="2"/>
     </row>
-    <row r="811" ht="12.75" customHeight="1">
+    <row r="811" spans="2:6" ht="12.75" customHeight="1">
       <c r="B811" s="1"/>
       <c r="F811" s="2"/>
     </row>
-    <row r="812" ht="12.75" customHeight="1">
+    <row r="812" spans="2:6" ht="12.75" customHeight="1">
       <c r="B812" s="1"/>
       <c r="F812" s="2"/>
     </row>
-    <row r="813" ht="12.75" customHeight="1">
+    <row r="813" spans="2:6" ht="12.75" customHeight="1">
       <c r="B813" s="1"/>
       <c r="F813" s="2"/>
     </row>
-    <row r="814" ht="12.75" customHeight="1">
+    <row r="814" spans="2:6" ht="12.75" customHeight="1">
       <c r="B814" s="1"/>
       <c r="F814" s="2"/>
     </row>
-    <row r="815" ht="12.75" customHeight="1">
+    <row r="815" spans="2:6" ht="12.75" customHeight="1">
       <c r="B815" s="1"/>
       <c r="F815" s="2"/>
     </row>
-    <row r="816" ht="12.75" customHeight="1">
+    <row r="816" spans="2:6" ht="12.75" customHeight="1">
       <c r="B816" s="1"/>
       <c r="F816" s="2"/>
     </row>
-    <row r="817" ht="12.75" customHeight="1">
+    <row r="817" spans="2:6" ht="12.75" customHeight="1">
       <c r="B817" s="1"/>
       <c r="F817" s="2"/>
     </row>
-    <row r="818" ht="12.75" customHeight="1">
+    <row r="818" spans="2:6" ht="12.75" customHeight="1">
       <c r="B818" s="1"/>
       <c r="F818" s="2"/>
     </row>
-    <row r="819" ht="12.75" customHeight="1">
+    <row r="819" spans="2:6" ht="12.75" customHeight="1">
       <c r="B819" s="1"/>
       <c r="F819" s="2"/>
     </row>
-    <row r="820" ht="12.75" customHeight="1">
+    <row r="820" spans="2:6" ht="12.75" customHeight="1">
       <c r="B820" s="1"/>
       <c r="F820" s="2"/>
     </row>
-    <row r="821" ht="12.75" customHeight="1">
+    <row r="821" spans="2:6" ht="12.75" customHeight="1">
       <c r="B821" s="1"/>
       <c r="F821" s="2"/>
     </row>
-    <row r="822" ht="12.75" customHeight="1">
+    <row r="822" spans="2:6" ht="12.75" customHeight="1">
       <c r="B822" s="1"/>
       <c r="F822" s="2"/>
     </row>
-    <row r="823" ht="12.75" customHeight="1">
+    <row r="823" spans="2:6" ht="12.75" customHeight="1">
       <c r="B823" s="1"/>
       <c r="F823" s="2"/>
     </row>
-    <row r="824" ht="12.75" customHeight="1">
+    <row r="824" spans="2:6" ht="12.75" customHeight="1">
       <c r="B824" s="1"/>
       <c r="F824" s="2"/>
     </row>
-    <row r="825" ht="12.75" customHeight="1">
+    <row r="825" spans="2:6" ht="12.75" customHeight="1">
       <c r="B825" s="1"/>
       <c r="F825" s="2"/>
     </row>
-    <row r="826" ht="12.75" customHeight="1">
+    <row r="826" spans="2:6" ht="12.75" customHeight="1">
       <c r="B826" s="1"/>
       <c r="F826" s="2"/>
     </row>
-    <row r="827" ht="12.75" customHeight="1">
+    <row r="827" spans="2:6" ht="12.75" customHeight="1">
       <c r="B827" s="1"/>
       <c r="F827" s="2"/>
     </row>
-    <row r="828" ht="12.75" customHeight="1">
+    <row r="828" spans="2:6" ht="12.75" customHeight="1">
       <c r="B828" s="1"/>
       <c r="F828" s="2"/>
     </row>
-    <row r="829" ht="12.75" customHeight="1">
+    <row r="829" spans="2:6" ht="12.75" customHeight="1">
       <c r="B829" s="1"/>
       <c r="F829" s="2"/>
     </row>
-    <row r="830" ht="12.75" customHeight="1">
+    <row r="830" spans="2:6" ht="12.75" customHeight="1">
       <c r="B830" s="1"/>
       <c r="F830" s="2"/>
     </row>
-    <row r="831" ht="12.75" customHeight="1">
+    <row r="831" spans="2:6" ht="12.75" customHeight="1">
       <c r="B831" s="1"/>
       <c r="F831" s="2"/>
     </row>
-    <row r="832" ht="12.75" customHeight="1">
+    <row r="832" spans="2:6" ht="12.75" customHeight="1">
       <c r="B832" s="1"/>
       <c r="F832" s="2"/>
     </row>
-    <row r="833" ht="12.75" customHeight="1">
+    <row r="833" spans="2:6" ht="12.75" customHeight="1">
       <c r="B833" s="1"/>
       <c r="F833" s="2"/>
     </row>
-    <row r="834" ht="12.75" customHeight="1">
+    <row r="834" spans="2:6" ht="12.75" customHeight="1">
       <c r="B834" s="1"/>
       <c r="F834" s="2"/>
     </row>
-    <row r="835" ht="12.75" customHeight="1">
+    <row r="835" spans="2:6" ht="12.75" customHeight="1">
       <c r="B835" s="1"/>
       <c r="F835" s="2"/>
     </row>
-    <row r="836" ht="12.75" customHeight="1">
+    <row r="836" spans="2:6" ht="12.75" customHeight="1">
       <c r="B836" s="1"/>
       <c r="F836" s="2"/>
     </row>
-    <row r="837" ht="12.75" customHeight="1">
+    <row r="837" spans="2:6" ht="12.75" customHeight="1">
       <c r="B837" s="1"/>
       <c r="F837" s="2"/>
     </row>
-    <row r="838" ht="12.75" customHeight="1">
+    <row r="838" spans="2:6" ht="12.75" customHeight="1">
       <c r="B838" s="1"/>
       <c r="F838" s="2"/>
     </row>
-    <row r="839" ht="12.75" customHeight="1">
+    <row r="839" spans="2:6" ht="12.75" customHeight="1">
       <c r="B839" s="1"/>
       <c r="F839" s="2"/>
     </row>
-    <row r="840" ht="12.75" customHeight="1">
+    <row r="840" spans="2:6" ht="12.75" customHeight="1">
       <c r="B840" s="1"/>
       <c r="F840" s="2"/>
     </row>
-    <row r="841" ht="12.75" customHeight="1">
+    <row r="841" spans="2:6" ht="12.75" customHeight="1">
       <c r="B841" s="1"/>
       <c r="F841" s="2"/>
     </row>
-    <row r="842" ht="12.75" customHeight="1">
+    <row r="842" spans="2:6" ht="12.75" customHeight="1">
       <c r="B842" s="1"/>
       <c r="F842" s="2"/>
     </row>
-    <row r="843" ht="12.75" customHeight="1">
+    <row r="843" spans="2:6" ht="12.75" customHeight="1">
       <c r="B843" s="1"/>
       <c r="F843" s="2"/>
     </row>
-    <row r="844" ht="12.75" customHeight="1">
+    <row r="844" spans="2:6" ht="12.75" customHeight="1">
       <c r="B844" s="1"/>
       <c r="F844" s="2"/>
     </row>
-    <row r="845" ht="12.75" customHeight="1">
+    <row r="845" spans="2:6" ht="12.75" customHeight="1">
       <c r="B845" s="1"/>
       <c r="F845" s="2"/>
     </row>
-    <row r="846" ht="12.75" customHeight="1">
+    <row r="846" spans="2:6" ht="12.75" customHeight="1">
       <c r="B846" s="1"/>
       <c r="F846" s="2"/>
     </row>
-    <row r="847" ht="12.75" customHeight="1">
+    <row r="847" spans="2:6" ht="12.75" customHeight="1">
       <c r="B847" s="1"/>
       <c r="F847" s="2"/>
     </row>
-    <row r="848" ht="12.75" customHeight="1">
+    <row r="848" spans="2:6" ht="12.75" customHeight="1">
       <c r="B848" s="1"/>
       <c r="F848" s="2"/>
     </row>
-    <row r="849" ht="12.75" customHeight="1">
+    <row r="849" spans="2:6" ht="12.75" customHeight="1">
       <c r="B849" s="1"/>
       <c r="F849" s="2"/>
     </row>
-    <row r="850" ht="12.75" customHeight="1">
+    <row r="850" spans="2:6" ht="12.75" customHeight="1">
       <c r="B850" s="1"/>
       <c r="F850" s="2"/>
     </row>
-    <row r="851" ht="12.75" customHeight="1">
+    <row r="851" spans="2:6" ht="12.75" customHeight="1">
       <c r="B851" s="1"/>
       <c r="F851" s="2"/>
     </row>
-    <row r="852" ht="12.75" customHeight="1">
+    <row r="852" spans="2:6" ht="12.75" customHeight="1">
       <c r="B852" s="1"/>
       <c r="F852" s="2"/>
     </row>
-    <row r="853" ht="12.75" customHeight="1">
+    <row r="853" spans="2:6" ht="12.75" customHeight="1">
       <c r="B853" s="1"/>
       <c r="F853" s="2"/>
     </row>
-    <row r="854" ht="12.75" customHeight="1">
+    <row r="854" spans="2:6" ht="12.75" customHeight="1">
       <c r="B854" s="1"/>
       <c r="F854" s="2"/>
     </row>
-    <row r="855" ht="12.75" customHeight="1">
+    <row r="855" spans="2:6" ht="12.75" customHeight="1">
       <c r="B855" s="1"/>
       <c r="F855" s="2"/>
     </row>
-    <row r="856" ht="12.75" customHeight="1">
+    <row r="856" spans="2:6" ht="12.75" customHeight="1">
       <c r="B856" s="1"/>
       <c r="F856" s="2"/>
     </row>
-    <row r="857" ht="12.75" customHeight="1">
+    <row r="857" spans="2:6" ht="12.75" customHeight="1">
       <c r="B857" s="1"/>
       <c r="F857" s="2"/>
     </row>
-    <row r="858" ht="12.75" customHeight="1">
+    <row r="858" spans="2:6" ht="12.75" customHeight="1">
       <c r="B858" s="1"/>
       <c r="F858" s="2"/>
     </row>
-    <row r="859" ht="12.75" customHeight="1">
+    <row r="859" spans="2:6" ht="12.75" customHeight="1">
       <c r="B859" s="1"/>
       <c r="F859" s="2"/>
     </row>
-    <row r="860" ht="12.75" customHeight="1">
+    <row r="860" spans="2:6" ht="12.75" customHeight="1">
       <c r="B860" s="1"/>
       <c r="F860" s="2"/>
     </row>
-    <row r="861" ht="12.75" customHeight="1">
+    <row r="861" spans="2:6" ht="12.75" customHeight="1">
       <c r="B861" s="1"/>
       <c r="F861" s="2"/>
     </row>
-    <row r="862" ht="12.75" customHeight="1">
+    <row r="862" spans="2:6" ht="12.75" customHeight="1">
       <c r="B862" s="1"/>
       <c r="F862" s="2"/>
     </row>
-    <row r="863" ht="12.75" customHeight="1">
+    <row r="863" spans="2:6" ht="12.75" customHeight="1">
       <c r="B863" s="1"/>
       <c r="F863" s="2"/>
     </row>
-    <row r="864" ht="12.75" customHeight="1">
+    <row r="864" spans="2:6" ht="12.75" customHeight="1">
       <c r="B864" s="1"/>
       <c r="F864" s="2"/>
     </row>
-    <row r="865" ht="12.75" customHeight="1">
+    <row r="865" spans="2:6" ht="12.75" customHeight="1">
       <c r="B865" s="1"/>
       <c r="F865" s="2"/>
     </row>
-    <row r="866" ht="12.75" customHeight="1">
+    <row r="866" spans="2:6" ht="12.75" customHeight="1">
       <c r="B866" s="1"/>
       <c r="F866" s="2"/>
     </row>
-    <row r="867" ht="12.75" customHeight="1">
+    <row r="867" spans="2:6" ht="12.75" customHeight="1">
       <c r="B867" s="1"/>
       <c r="F867" s="2"/>
     </row>
-    <row r="868" ht="12.75" customHeight="1">
+    <row r="868" spans="2:6" ht="12.75" customHeight="1">
       <c r="B868" s="1"/>
       <c r="F868" s="2"/>
     </row>
-    <row r="869" ht="12.75" customHeight="1">
+    <row r="869" spans="2:6" ht="12.75" customHeight="1">
       <c r="B869" s="1"/>
       <c r="F869" s="2"/>
     </row>
-    <row r="870" ht="12.75" customHeight="1">
+    <row r="870" spans="2:6" ht="12.75" customHeight="1">
       <c r="B870" s="1"/>
       <c r="F870" s="2"/>
     </row>
-    <row r="871" ht="12.75" customHeight="1">
+    <row r="871" spans="2:6" ht="12.75" customHeight="1">
       <c r="B871" s="1"/>
       <c r="F871" s="2"/>
     </row>
-    <row r="872" ht="12.75" customHeight="1">
+    <row r="872" spans="2:6" ht="12.75" customHeight="1">
       <c r="B872" s="1"/>
       <c r="F872" s="2"/>
     </row>
-    <row r="873" ht="12.75" customHeight="1">
+    <row r="873" spans="2:6" ht="12.75" customHeight="1">
       <c r="B873" s="1"/>
       <c r="F873" s="2"/>
     </row>
-    <row r="874" ht="12.75" customHeight="1">
+    <row r="874" spans="2:6" ht="12.75" customHeight="1">
       <c r="B874" s="1"/>
       <c r="F874" s="2"/>
     </row>
-    <row r="875" ht="12.75" customHeight="1">
+    <row r="875" spans="2:6" ht="12.75" customHeight="1">
       <c r="B875" s="1"/>
       <c r="F875" s="2"/>
     </row>
-    <row r="876" ht="12.75" customHeight="1">
+    <row r="876" spans="2:6" ht="12.75" customHeight="1">
       <c r="B876" s="1"/>
       <c r="F876" s="2"/>
     </row>
-    <row r="877" ht="12.75" customHeight="1">
+    <row r="877" spans="2:6" ht="12.75" customHeight="1">
       <c r="B877" s="1"/>
       <c r="F877" s="2"/>
     </row>
-    <row r="878" ht="12.75" customHeight="1">
+    <row r="878" spans="2:6" ht="12.75" customHeight="1">
       <c r="B878" s="1"/>
       <c r="F878" s="2"/>
     </row>
-    <row r="879" ht="12.75" customHeight="1">
+    <row r="879" spans="2:6" ht="12.75" customHeight="1">
       <c r="B879" s="1"/>
       <c r="F879" s="2"/>
     </row>
-    <row r="880" ht="12.75" customHeight="1">
+    <row r="880" spans="2:6" ht="12.75" customHeight="1">
       <c r="B880" s="1"/>
       <c r="F880" s="2"/>
     </row>
-    <row r="881" ht="12.75" customHeight="1">
+    <row r="881" spans="2:6" ht="12.75" customHeight="1">
       <c r="B881" s="1"/>
       <c r="F881" s="2"/>
     </row>
-    <row r="882" ht="12.75" customHeight="1">
+    <row r="882" spans="2:6" ht="12.75" customHeight="1">
       <c r="B882" s="1"/>
       <c r="F882" s="2"/>
     </row>
-    <row r="883" ht="12.75" customHeight="1">
+    <row r="883" spans="2:6" ht="12.75" customHeight="1">
       <c r="B883" s="1"/>
       <c r="F883" s="2"/>
     </row>
-    <row r="884" ht="12.75" customHeight="1">
+    <row r="884" spans="2:6" ht="12.75" customHeight="1">
       <c r="B884" s="1"/>
       <c r="F884" s="2"/>
     </row>
-    <row r="885" ht="12.75" customHeight="1">
+    <row r="885" spans="2:6" ht="12.75" customHeight="1">
       <c r="B885" s="1"/>
       <c r="F885" s="2"/>
     </row>
-    <row r="886" ht="12.75" customHeight="1">
+    <row r="886" spans="2:6" ht="12.75" customHeight="1">
       <c r="B886" s="1"/>
       <c r="F886" s="2"/>
     </row>
-    <row r="887" ht="12.75" customHeight="1">
+    <row r="887" spans="2:6" ht="12.75" customHeight="1">
       <c r="B887" s="1"/>
       <c r="F887" s="2"/>
     </row>
-    <row r="888" ht="12.75" customHeight="1">
+    <row r="888" spans="2:6" ht="12.75" customHeight="1">
       <c r="B888" s="1"/>
       <c r="F888" s="2"/>
     </row>
-    <row r="889" ht="12.75" customHeight="1">
+    <row r="889" spans="2:6" ht="12.75" customHeight="1">
       <c r="B889" s="1"/>
       <c r="F889" s="2"/>
     </row>
-    <row r="890" ht="12.75" customHeight="1">
+    <row r="890" spans="2:6" ht="12.75" customHeight="1">
       <c r="B890" s="1"/>
       <c r="F890" s="2"/>
     </row>
-    <row r="891" ht="12.75" customHeight="1">
+    <row r="891" spans="2:6" ht="12.75" customHeight="1">
       <c r="B891" s="1"/>
       <c r="F891" s="2"/>
     </row>
-    <row r="892" ht="12.75" customHeight="1">
+    <row r="892" spans="2:6" ht="12.75" customHeight="1">
       <c r="B892" s="1"/>
       <c r="F892" s="2"/>
     </row>
-    <row r="893" ht="12.75" customHeight="1">
+    <row r="893" spans="2:6" ht="12.75" customHeight="1">
       <c r="B893" s="1"/>
       <c r="F893" s="2"/>
     </row>
-    <row r="894" ht="12.75" customHeight="1">
+    <row r="894" spans="2:6" ht="12.75" customHeight="1">
       <c r="B894" s="1"/>
       <c r="F894" s="2"/>
     </row>
-    <row r="895" ht="12.75" customHeight="1">
+    <row r="895" spans="2:6" ht="12.75" customHeight="1">
       <c r="B895" s="1"/>
       <c r="F895" s="2"/>
     </row>
-    <row r="896" ht="12.75" customHeight="1">
+    <row r="896" spans="2:6" ht="12.75" customHeight="1">
       <c r="B896" s="1"/>
       <c r="F896" s="2"/>
     </row>
-    <row r="897" ht="12.75" customHeight="1">
+    <row r="897" spans="2:6" ht="12.75" customHeight="1">
       <c r="B897" s="1"/>
       <c r="F897" s="2"/>
     </row>
-    <row r="898" ht="12.75" customHeight="1">
+    <row r="898" spans="2:6" ht="12.75" customHeight="1">
       <c r="B898" s="1"/>
       <c r="F898" s="2"/>
     </row>
-    <row r="899" ht="12.75" customHeight="1">
+    <row r="899" spans="2:6" ht="12.75" customHeight="1">
       <c r="B899" s="1"/>
       <c r="F899" s="2"/>
     </row>
-    <row r="900" ht="12.75" customHeight="1">
+    <row r="900" spans="2:6" ht="12.75" customHeight="1">
       <c r="B900" s="1"/>
       <c r="F900" s="2"/>
     </row>
-    <row r="901" ht="12.75" customHeight="1">
+    <row r="901" spans="2:6" ht="12.75" customHeight="1">
       <c r="B901" s="1"/>
       <c r="F901" s="2"/>
     </row>
-    <row r="902" ht="12.75" customHeight="1">
+    <row r="902" spans="2:6" ht="12.75" customHeight="1">
       <c r="B902" s="1"/>
       <c r="F902" s="2"/>
     </row>
-    <row r="903" ht="12.75" customHeight="1">
+    <row r="903" spans="2:6" ht="12.75" customHeight="1">
       <c r="B903" s="1"/>
       <c r="F903" s="2"/>
     </row>
-    <row r="904" ht="12.75" customHeight="1">
+    <row r="904" spans="2:6" ht="12.75" customHeight="1">
       <c r="B904" s="1"/>
       <c r="F904" s="2"/>
     </row>
-    <row r="905" ht="12.75" customHeight="1">
+    <row r="905" spans="2:6" ht="12.75" customHeight="1">
       <c r="B905" s="1"/>
       <c r="F905" s="2"/>
     </row>
-    <row r="906" ht="12.75" customHeight="1">
+    <row r="906" spans="2:6" ht="12.75" customHeight="1">
       <c r="B906" s="1"/>
       <c r="F906" s="2"/>
     </row>
-    <row r="907" ht="12.75" customHeight="1">
+    <row r="907" spans="2:6" ht="12.75" customHeight="1">
       <c r="B907" s="1"/>
       <c r="F907" s="2"/>
     </row>
-    <row r="908" ht="12.75" customHeight="1">
+    <row r="908" spans="2:6" ht="12.75" customHeight="1">
       <c r="B908" s="1"/>
       <c r="F908" s="2"/>
     </row>
-    <row r="909" ht="12.75" customHeight="1">
+    <row r="909" spans="2:6" ht="12.75" customHeight="1">
       <c r="B909" s="1"/>
       <c r="F909" s="2"/>
     </row>
-    <row r="910" ht="12.75" customHeight="1">
+    <row r="910" spans="2:6" ht="12.75" customHeight="1">
       <c r="B910" s="1"/>
       <c r="F910" s="2"/>
     </row>
-    <row r="911" ht="12.75" customHeight="1">
+    <row r="911" spans="2:6" ht="12.75" customHeight="1">
       <c r="B911" s="1"/>
       <c r="F911" s="2"/>
     </row>
-    <row r="912" ht="12.75" customHeight="1">
+    <row r="912" spans="2:6" ht="12.75" customHeight="1">
       <c r="B912" s="1"/>
       <c r="F912" s="2"/>
     </row>
-    <row r="913" ht="12.75" customHeight="1">
+    <row r="913" spans="2:6" ht="12.75" customHeight="1">
       <c r="B913" s="1"/>
       <c r="F913" s="2"/>
     </row>
-    <row r="914" ht="12.75" customHeight="1">
+    <row r="914" spans="2:6" ht="12.75" customHeight="1">
       <c r="B914" s="1"/>
       <c r="F914" s="2"/>
     </row>
-    <row r="915" ht="12.75" customHeight="1">
+    <row r="915" spans="2:6" ht="12.75" customHeight="1">
       <c r="B915" s="1"/>
       <c r="F915" s="2"/>
     </row>
-    <row r="916" ht="12.75" customHeight="1">
+    <row r="916" spans="2:6" ht="12.75" customHeight="1">
       <c r="B916" s="1"/>
       <c r="F916" s="2"/>
     </row>
-    <row r="917" ht="12.75" customHeight="1">
+    <row r="917" spans="2:6" ht="12.75" customHeight="1">
       <c r="B917" s="1"/>
       <c r="F917" s="2"/>
     </row>
-    <row r="918" ht="12.75" customHeight="1">
+    <row r="918" spans="2:6" ht="12.75" customHeight="1">
       <c r="B918" s="1"/>
       <c r="F918" s="2"/>
     </row>
-    <row r="919" ht="12.75" customHeight="1">
+    <row r="919" spans="2:6" ht="12.75" customHeight="1">
       <c r="B919" s="1"/>
       <c r="F919" s="2"/>
     </row>
-    <row r="920" ht="12.75" customHeight="1">
+    <row r="920" spans="2:6" ht="12.75" customHeight="1">
       <c r="B920" s="1"/>
       <c r="F920" s="2"/>
     </row>
-    <row r="921" ht="12.75" customHeight="1">
+    <row r="921" spans="2:6" ht="12.75" customHeight="1">
       <c r="B921" s="1"/>
       <c r="F921" s="2"/>
     </row>
-    <row r="922" ht="12.75" customHeight="1">
+    <row r="922" spans="2:6" ht="12.75" customHeight="1">
       <c r="B922" s="1"/>
       <c r="F922" s="2"/>
     </row>
-    <row r="923" ht="12.75" customHeight="1">
+    <row r="923" spans="2:6" ht="12.75" customHeight="1">
       <c r="B923" s="1"/>
       <c r="F923" s="2"/>
     </row>
-    <row r="924" ht="12.75" customHeight="1">
+    <row r="924" spans="2:6" ht="12.75" customHeight="1">
       <c r="B924" s="1"/>
       <c r="F924" s="2"/>
     </row>
-    <row r="925" ht="12.75" customHeight="1">
+    <row r="925" spans="2:6" ht="12.75" customHeight="1">
       <c r="B925" s="1"/>
       <c r="F925" s="2"/>
     </row>
-    <row r="926" ht="12.75" customHeight="1">
+    <row r="926" spans="2:6" ht="12.75" customHeight="1">
       <c r="B926" s="1"/>
       <c r="F926" s="2"/>
     </row>
-    <row r="927" ht="12.75" customHeight="1">
+    <row r="927" spans="2:6" ht="12.75" customHeight="1">
       <c r="B927" s="1"/>
       <c r="F927" s="2"/>
     </row>
-    <row r="928" ht="12.75" customHeight="1">
+    <row r="928" spans="2:6" ht="12.75" customHeight="1">
       <c r="B928" s="1"/>
       <c r="F928" s="2"/>
     </row>
-    <row r="929" ht="12.75" customHeight="1">
+    <row r="929" spans="2:6" ht="12.75" customHeight="1">
       <c r="B929" s="1"/>
       <c r="F929" s="2"/>
     </row>
-    <row r="930" ht="12.75" customHeight="1">
+    <row r="930" spans="2:6" ht="12.75" customHeight="1">
       <c r="B930" s="1"/>
       <c r="F930" s="2"/>
     </row>
-    <row r="931" ht="12.75" customHeight="1">
+    <row r="931" spans="2:6" ht="12.75" customHeight="1">
       <c r="B931" s="1"/>
       <c r="F931" s="2"/>
     </row>
-    <row r="932" ht="12.75" customHeight="1">
+    <row r="932" spans="2:6" ht="12.75" customHeight="1">
       <c r="B932" s="1"/>
       <c r="F932" s="2"/>
     </row>
-    <row r="933" ht="12.75" customHeight="1">
+    <row r="933" spans="2:6" ht="12.75" customHeight="1">
       <c r="B933" s="1"/>
       <c r="F933" s="2"/>
     </row>
-    <row r="934" ht="12.75" customHeight="1">
+    <row r="934" spans="2:6" ht="12.75" customHeight="1">
       <c r="B934" s="1"/>
       <c r="F934" s="2"/>
     </row>
-    <row r="935" ht="12.75" customHeight="1">
+    <row r="935" spans="2:6" ht="12.75" customHeight="1">
       <c r="B935" s="1"/>
       <c r="F935" s="2"/>
     </row>
-    <row r="936" ht="12.75" customHeight="1">
+    <row r="936" spans="2:6" ht="12.75" customHeight="1">
       <c r="B936" s="1"/>
       <c r="F936" s="2"/>
     </row>
-    <row r="937" ht="12.75" customHeight="1">
+    <row r="937" spans="2:6" ht="12.75" customHeight="1">
       <c r="B937" s="1"/>
       <c r="F937" s="2"/>
     </row>
-    <row r="938" ht="12.75" customHeight="1">
+    <row r="938" spans="2:6" ht="12.75" customHeight="1">
       <c r="B938" s="1"/>
       <c r="F938" s="2"/>
     </row>
-    <row r="939" ht="12.75" customHeight="1">
+    <row r="939" spans="2:6" ht="12.75" customHeight="1">
       <c r="B939" s="1"/>
       <c r="F939" s="2"/>
     </row>
-    <row r="940" ht="12.75" customHeight="1">
+    <row r="940" spans="2:6" ht="12.75" customHeight="1">
       <c r="B940" s="1"/>
       <c r="F940" s="2"/>
     </row>
-    <row r="941" ht="12.75" customHeight="1">
+    <row r="941" spans="2:6" ht="12.75" customHeight="1">
       <c r="B941" s="1"/>
       <c r="F941" s="2"/>
     </row>
-    <row r="942" ht="12.75" customHeight="1">
+    <row r="942" spans="2:6" ht="12.75" customHeight="1">
       <c r="B942" s="1"/>
       <c r="F942" s="2"/>
     </row>
-    <row r="943" ht="12.75" customHeight="1">
+    <row r="943" spans="2:6" ht="12.75" customHeight="1">
       <c r="B943" s="1"/>
       <c r="F943" s="2"/>
     </row>
-    <row r="944" ht="12.75" customHeight="1">
+    <row r="944" spans="2:6" ht="12.75" customHeight="1">
       <c r="B944" s="1"/>
       <c r="F944" s="2"/>
     </row>
-    <row r="945" ht="12.75" customHeight="1">
+    <row r="945" spans="2:6" ht="12.75" customHeight="1">
       <c r="B945" s="1"/>
       <c r="F945" s="2"/>
     </row>
-    <row r="946" ht="12.75" customHeight="1">
+    <row r="946" spans="2:6" ht="12.75" customHeight="1">
       <c r="B946" s="1"/>
       <c r="F946" s="2"/>
     </row>
-    <row r="947" ht="12.75" customHeight="1">
+    <row r="947" spans="2:6" ht="12.75" customHeight="1">
       <c r="B947" s="1"/>
       <c r="F947" s="2"/>
     </row>
-    <row r="948" ht="12.75" customHeight="1">
+    <row r="948" spans="2:6" ht="12.75" customHeight="1">
       <c r="B948" s="1"/>
       <c r="F948" s="2"/>
     </row>
-    <row r="949" ht="12.75" customHeight="1">
+    <row r="949" spans="2:6" ht="12.75" customHeight="1">
       <c r="B949" s="1"/>
       <c r="F949" s="2"/>
     </row>
-    <row r="950" ht="12.75" customHeight="1">
+    <row r="950" spans="2:6" ht="12.75" customHeight="1">
       <c r="B950" s="1"/>
       <c r="F950" s="2"/>
     </row>
-    <row r="951" ht="12.75" customHeight="1">
+    <row r="951" spans="2:6" ht="12.75" customHeight="1">
       <c r="B951" s="1"/>
       <c r="F951" s="2"/>
     </row>
-    <row r="952" ht="12.75" customHeight="1">
+    <row r="952" spans="2:6" ht="12.75" customHeight="1">
       <c r="B952" s="1"/>
       <c r="F952" s="2"/>
     </row>
-    <row r="953" ht="12.75" customHeight="1">
+    <row r="953" spans="2:6" ht="12.75" customHeight="1">
       <c r="B953" s="1"/>
       <c r="F953" s="2"/>
     </row>
-    <row r="954" ht="12.75" customHeight="1">
+    <row r="954" spans="2:6" ht="12.75" customHeight="1">
       <c r="B954" s="1"/>
       <c r="F954" s="2"/>
     </row>
-    <row r="955" ht="12.75" customHeight="1">
+    <row r="955" spans="2:6" ht="12.75" customHeight="1">
       <c r="B955" s="1"/>
       <c r="F955" s="2"/>
     </row>
-    <row r="956" ht="12.75" customHeight="1">
+    <row r="956" spans="2:6" ht="12.75" customHeight="1">
       <c r="B956" s="1"/>
       <c r="F956" s="2"/>
     </row>
-    <row r="957" ht="12.75" customHeight="1">
+    <row r="957" spans="2:6" ht="12.75" customHeight="1">
       <c r="B957" s="1"/>
       <c r="F957" s="2"/>
     </row>
-    <row r="958" ht="12.75" customHeight="1">
+    <row r="958" spans="2:6" ht="12.75" customHeight="1">
       <c r="B958" s="1"/>
       <c r="F958" s="2"/>
     </row>
-    <row r="959" ht="12.75" customHeight="1">
+    <row r="959" spans="2:6" ht="12.75" customHeight="1">
       <c r="B959" s="1"/>
       <c r="F959" s="2"/>
     </row>
-    <row r="960" ht="12.75" customHeight="1">
+    <row r="960" spans="2:6" ht="12.75" customHeight="1">
       <c r="B960" s="1"/>
       <c r="F960" s="2"/>
     </row>
-    <row r="961" ht="12.75" customHeight="1">
+    <row r="961" spans="2:6" ht="12.75" customHeight="1">
       <c r="B961" s="1"/>
       <c r="F961" s="2"/>
     </row>
-    <row r="962" ht="12.75" customHeight="1">
+    <row r="962" spans="2:6" ht="12.75" customHeight="1">
       <c r="B962" s="1"/>
       <c r="F962" s="2"/>
     </row>
-    <row r="963" ht="12.75" customHeight="1">
+    <row r="963" spans="2:6" ht="12.75" customHeight="1">
       <c r="B963" s="1"/>
       <c r="F963" s="2"/>
     </row>
-    <row r="964" ht="12.75" customHeight="1">
+    <row r="964" spans="2:6" ht="12.75" customHeight="1">
       <c r="B964" s="1"/>
       <c r="F964" s="2"/>
     </row>
-    <row r="965" ht="12.75" customHeight="1">
+    <row r="965" spans="2:6" ht="12.75" customHeight="1">
       <c r="B965" s="1"/>
       <c r="F965" s="2"/>
     </row>
-    <row r="966" ht="12.75" customHeight="1">
+    <row r="966" spans="2:6" ht="12.75" customHeight="1">
       <c r="B966" s="1"/>
       <c r="F966" s="2"/>
     </row>
-    <row r="967" ht="12.75" customHeight="1">
+    <row r="967" spans="2:6" ht="12.75" customHeight="1">
       <c r="B967" s="1"/>
       <c r="F967" s="2"/>
     </row>
-    <row r="968" ht="12.75" customHeight="1">
+    <row r="968" spans="2:6" ht="12.75" customHeight="1">
       <c r="B968" s="1"/>
       <c r="F968" s="2"/>
     </row>
@@ -4823,30 +4852,27 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.86"/>
-    <col customWidth="1" min="2" max="2" width="32.71"/>
-    <col customWidth="1" min="3" max="26" width="8.86"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1">
+    <row r="1" spans="1:26" ht="34.5" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -4874,12 +4900,12 @@
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -4904,258 +4930,258 @@
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
+    <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="B3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="31" t="e">
+        <f>SelectedYear</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="30" t="e">
+        <f t="shared" ref="D3:D4" si="0">MATCH(C3,lstYears,0)+1</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="19.5" customHeight="1">
+      <c r="B4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="31" t="str">
-        <f>SelectedYear</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="30" t="str">
-        <f t="shared" ref="D3:D4" si="1">MATCH(C3,lstYears,0)+1</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="31" t="e">
+        <f>C3-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="30" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="19.5" customHeight="1"/>
+    <row r="6" spans="1:26" ht="19.5" customHeight="1">
+      <c r="B6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="32" t="e">
+        <f t="shared" ref="C6:G6" si="1">MATCH(C7,lstYears,0)+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="31" t="str">
-        <f>C3-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1"/>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="B6" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="32" t="str">
-        <f t="shared" ref="C6:G6" si="2">MATCH(C7,lstYears,0)+1</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="32" t="str">
+      <c r="C7" s="34" t="e">
+        <f t="shared" ref="C7:F7" si="2">D7-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="34" t="e">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="34" t="e">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="32" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="34" t="e">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="B7" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="34" t="str">
-        <f t="shared" ref="C7:F7" si="3">D7-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="34" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="34" t="e">
         <f>C3</f>
         <v>#REF!</v>
       </c>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="30" t="str">
+    <row r="8" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A8" s="30" t="e">
         <f>MATCH(B8,'Product Backlog'!$C$5:$C$12,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="30" t="str">
-        <f t="shared" ref="B8:B12" si="4">IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="30" t="str">
+      <c r="B8" s="30" t="e">
+        <f t="shared" ref="B8:B12" si="3">IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="30" t="e">
         <f t="array" ref="C8">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A8,C$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="30" t="e">
         <f t="array" ref="D8">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A8,D$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E8" s="30" t="str">
+      <c r="E8" s="30" t="e">
         <f t="array" ref="E8">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A8,E$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F8" s="30" t="str">
+      <c r="F8" s="30" t="e">
         <f t="array" ref="F8">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A8,F$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="30" t="str">
+      <c r="G8" s="30" t="e">
         <f t="array" ref="G8">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A8,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H8" s="35" t="str">
-        <f t="shared" ref="H8:H12" si="5">IFERROR(G8/F8-1,"")</f>
+        <f t="shared" ref="H8:H12" si="4">IFERROR(G8/F8-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="30" t="str">
+    <row r="9" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A9" s="30" t="e">
         <f>MATCH(B9,'Product Backlog'!$C$5:$C$12,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="30" t="str">
+      <c r="B9" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="30" t="e">
         <f t="array" ref="C9">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A9,C$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="30" t="str">
+      <c r="D9" s="30" t="e">
         <f t="array" ref="D9">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A9,D$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="30" t="str">
+      <c r="E9" s="30" t="e">
         <f t="array" ref="E9">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A9,E$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="30" t="str">
+      <c r="F9" s="30" t="e">
         <f t="array" ref="F9">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A9,F$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="30" t="str">
+      <c r="G9" s="30" t="e">
         <f t="array" ref="G9">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A9,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H9" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="30" t="str">
+    <row r="10" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A10" s="30" t="e">
         <f>MATCH(B10,'Product Backlog'!$C$5:$C$12,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="B10" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="30" t="str">
+      <c r="B10" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="30" t="e">
         <f t="array" ref="C10">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A10,C$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="30" t="e">
         <f t="array" ref="D10">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A10,D$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="30" t="str">
+      <c r="E10" s="30" t="e">
         <f t="array" ref="E10">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A10,E$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="30" t="str">
+      <c r="F10" s="30" t="e">
         <f t="array" ref="F10">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A10,F$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="30" t="str">
+      <c r="G10" s="30" t="e">
         <f t="array" ref="G10">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A10,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H10" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="30" t="str">
+    <row r="11" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A11" s="30" t="e">
         <f>MATCH(B11,'Product Backlog'!$C$5:$C$12,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="B11" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="30" t="str">
+      <c r="B11" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="30" t="e">
         <f t="array" ref="C11">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A11,C$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="30" t="e">
         <f t="array" ref="D11">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A11,D$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="E11" s="30" t="e">
         <f t="array" ref="E11">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A11,E$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="30" t="str">
+      <c r="F11" s="30" t="e">
         <f t="array" ref="F11">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A11,F$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="30" t="str">
+      <c r="G11" s="30" t="e">
         <f t="array" ref="G11">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A11,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H11" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="30" t="str">
+    <row r="12" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A12" s="30" t="e">
         <f>MATCH(B12,'Product Backlog'!$C$5:$C$12,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="B12" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="30" t="str">
+      <c r="B12" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="30" t="e">
         <f t="array" ref="C12">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A12,C$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D12" s="30" t="str">
+      <c r="D12" s="30" t="e">
         <f t="array" ref="D12">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A12,D$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="30" t="str">
+      <c r="E12" s="30" t="e">
         <f t="array" ref="E12">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A12,E$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F12" s="30" t="str">
+      <c r="F12" s="30" t="e">
         <f t="array" ref="F12">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A12,F$6),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="30" t="str">
+      <c r="G12" s="30" t="e">
         <f t="array" ref="G12">IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A12,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H12" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="B14" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -5164,765 +5190,765 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:26" ht="19.5" customHeight="1">
       <c r="A15" s="30">
-        <f t="shared" ref="A15:A39" si="6">ROWS($B$15:B15)</f>
+        <f t="shared" ref="A15:A39" si="5">ROWS($B$15:B15)</f>
         <v>1</v>
       </c>
       <c r="B15" s="30" t="str">
         <f>IF('Product Backlog'!C5=0,"",'Product Backlog'!C5)</f>
         <v>Patient arranges/manages his appointments</v>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="30" t="e">
         <f t="array" ref="C15">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A15,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="30" t="str">
+      <c r="D15" s="30" t="e">
         <f t="array" ref="D15">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A15,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="30" t="str">
+      <c r="E15" s="30" t="e">
         <f t="array" ref="E15">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A15,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="30" t="str">
+      <c r="F15" s="30" t="e">
         <f t="array" ref="F15">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A15,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="30" t="str">
+      <c r="G15" s="30" t="e">
         <f t="array" ref="G15">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A15,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1">
+    <row r="16" spans="1:26" ht="19.5" customHeight="1">
       <c r="A16" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>IF('Product Backlog'!C6=0,"",'Product Backlog'!C6)</f>
         <v>Doctor arranges/manages their appointments</v>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="30" t="e">
         <f t="array" ref="C16">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A16,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="30" t="str">
+      <c r="D16" s="30" t="e">
         <f t="array" ref="D16">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A16,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="30" t="str">
+      <c r="E16" s="30" t="e">
         <f t="array" ref="E16">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A16,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="30" t="str">
+      <c r="F16" s="30" t="e">
         <f t="array" ref="F16">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A16,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="30" t="str">
+      <c r="G16" s="30" t="e">
         <f t="array" ref="G16">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A16,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1">
       <c r="A17" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="B17" s="30" t="str">
         <f>IF('Product Backlog'!C7=0,"",'Product Backlog'!C7)</f>
         <v>Patient/Doctor accessing consultation session</v>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="30" t="e">
         <f t="array" ref="C17">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A17,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="30" t="str">
+      <c r="D17" s="30" t="e">
         <f t="array" ref="D17">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A17,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="30" t="str">
+      <c r="E17" s="30" t="e">
         <f t="array" ref="E17">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A17,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="30" t="str">
+      <c r="F17" s="30" t="e">
         <f t="array" ref="F17">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A17,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="30" t="e">
         <f t="array" ref="G17">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A17,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1">
       <c r="A18" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B18" s="30" t="str">
         <f>IF('Product Backlog'!C8=0,"",'Product Backlog'!C8)</f>
         <v>Patient/Doctor manages their profile and personal information</v>
       </c>
-      <c r="C18" s="30" t="str">
+      <c r="C18" s="30" t="e">
         <f t="array" ref="C18">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A18,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="D18" s="30" t="str">
+      <c r="D18" s="30" t="e">
         <f t="array" ref="D18">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A18,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="30" t="str">
+      <c r="E18" s="30" t="e">
         <f t="array" ref="E18">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A18,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="30" t="str">
+      <c r="F18" s="30" t="e">
         <f t="array" ref="F18">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A18,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="30" t="e">
         <f t="array" ref="G18">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A18,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1">
       <c r="A19" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>IF('Product Backlog'!C9=0,"",'Product Backlog'!C9)</f>
         <v>Doctor manages his patients</v>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="30" t="e">
         <f t="array" ref="C19">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A19,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="30" t="str">
+      <c r="D19" s="30" t="e">
         <f t="array" ref="D19">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A19,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="30" t="str">
+      <c r="E19" s="30" t="e">
         <f t="array" ref="E19">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A19,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="30" t="str">
+      <c r="F19" s="30" t="e">
         <f t="array" ref="F19">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A19,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="30" t="str">
+      <c r="G19" s="30" t="e">
         <f t="array" ref="G19">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A19,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1">
       <c r="A20" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B20" s="30" t="str">
         <f>IF('Product Backlog'!C10=0,"",'Product Backlog'!C10)</f>
-        <v>Patient manages his notifications</v>
-      </c>
-      <c r="C20" s="30" t="str">
+        <v>Patient/Doctor manages his notifications</v>
+      </c>
+      <c r="C20" s="30" t="e">
         <f t="array" ref="C20">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A20,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="30" t="str">
+      <c r="D20" s="30" t="e">
         <f t="array" ref="D20">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A20,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="30" t="str">
+      <c r="E20" s="30" t="e">
         <f t="array" ref="E20">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A20,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="30" t="str">
+      <c r="F20" s="30" t="e">
         <f t="array" ref="F20">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A20,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="30" t="str">
+      <c r="G20" s="30" t="e">
         <f t="array" ref="G20">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A20,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1">
       <c r="A21" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B21" s="30" t="str">
         <f>IF('Product Backlog'!C11=0,"",'Product Backlog'!C11)</f>
         <v>Admin managing all accounts</v>
       </c>
-      <c r="C21" s="30" t="str">
+      <c r="C21" s="30" t="e">
         <f t="array" ref="C21">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A21,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="30" t="str">
+      <c r="D21" s="30" t="e">
         <f t="array" ref="D21">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A21,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="30" t="str">
+      <c r="E21" s="30" t="e">
         <f t="array" ref="E21">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A21,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="F21" s="30" t="str">
+      <c r="F21" s="30" t="e">
         <f t="array" ref="F21">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A21,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="30" t="str">
+      <c r="G21" s="30" t="e">
         <f t="array" ref="G21">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A21,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1">
       <c r="A22" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B22" s="30" t="str">
         <f>IF('Product Backlog'!C12=0,"",'Product Backlog'!C12)</f>
         <v>Patient manages their user authentication</v>
       </c>
-      <c r="C22" s="30" t="str">
+      <c r="C22" s="30" t="e">
         <f t="array" ref="C22">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A22,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="30" t="str">
+      <c r="D22" s="30" t="e">
         <f t="array" ref="D22">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A22,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="30" t="str">
+      <c r="E22" s="30" t="e">
         <f t="array" ref="E22">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A22,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="30" t="str">
+      <c r="F22" s="30" t="e">
         <f t="array" ref="F22">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A22,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="30" t="str">
+      <c r="G22" s="30" t="e">
         <f t="array" ref="G22">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A22,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1">
       <c r="A23" s="30">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B23" s="30" t="e">
+        <f t="shared" ref="B23:B39" si="6">IF(#REF!=0,"",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C23" s="30" t="e">
+        <f t="array" ref="C23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="30" t="e">
+        <f t="array" ref="D23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="30" t="e">
+        <f t="array" ref="E23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="30" t="e">
+        <f t="array" ref="F23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="30" t="e">
+        <f t="array" ref="G23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A24" s="30">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B24" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B23" s="30" t="str">
-        <f t="shared" ref="B23:B39" si="7">IF(#REF!=0,"",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="30" t="str">
-        <f t="array" ref="C23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="30" t="str">
-        <f t="array" ref="D23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" s="30" t="str">
-        <f t="array" ref="E23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F23" s="30" t="str">
-        <f t="array" ref="F23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="30" t="str">
-        <f t="array" ref="G23">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A23,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="30" t="e">
+        <f t="array" ref="C24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="30" t="e">
+        <f t="array" ref="D24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="30" t="e">
+        <f t="array" ref="E24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="30" t="e">
+        <f t="array" ref="F24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="30" t="e">
+        <f t="array" ref="G24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A25" s="30">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B25" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B24" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="30" t="str">
-        <f t="array" ref="C24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="30" t="str">
-        <f t="array" ref="D24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E24" s="30" t="str">
-        <f t="array" ref="E24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F24" s="30" t="str">
-        <f t="array" ref="F24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="30" t="str">
-        <f t="array" ref="G24">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A24,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="30" t="e">
+        <f t="array" ref="C25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="30" t="e">
+        <f t="array" ref="D25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="30" t="e">
+        <f t="array" ref="E25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="30" t="e">
+        <f t="array" ref="F25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="30" t="e">
+        <f t="array" ref="G25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A26" s="30">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B26" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B25" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C25" s="30" t="str">
-        <f t="array" ref="C25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="30" t="str">
-        <f t="array" ref="D25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="30" t="str">
-        <f t="array" ref="E25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F25" s="30" t="str">
-        <f t="array" ref="F25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="30" t="str">
-        <f t="array" ref="G25">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A25,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="30" t="e">
+        <f t="array" ref="C26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="30" t="e">
+        <f t="array" ref="D26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="30" t="e">
+        <f t="array" ref="E26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="30" t="e">
+        <f t="array" ref="F26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="30" t="e">
+        <f t="array" ref="G26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A27" s="30">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="B27" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B26" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C26" s="30" t="str">
-        <f t="array" ref="C26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="30" t="str">
-        <f t="array" ref="D26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="30" t="str">
-        <f t="array" ref="E26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F26" s="30" t="str">
-        <f t="array" ref="F26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" s="30" t="str">
-        <f t="array" ref="G26">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A26,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C27" s="30" t="e">
+        <f t="array" ref="C27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="30" t="e">
+        <f t="array" ref="D27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="30" t="e">
+        <f t="array" ref="E27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="30" t="e">
+        <f t="array" ref="F27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="30" t="e">
+        <f t="array" ref="G27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A28" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B28" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B27" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C27" s="30" t="str">
-        <f t="array" ref="C27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="30" t="str">
-        <f t="array" ref="D27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="30" t="str">
-        <f t="array" ref="E27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="30" t="str">
-        <f t="array" ref="F27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="30" t="str">
-        <f t="array" ref="G27">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A27,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C28" s="30" t="e">
+        <f t="array" ref="C28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="30" t="e">
+        <f t="array" ref="D28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="30" t="e">
+        <f t="array" ref="E28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="30" t="e">
+        <f t="array" ref="F28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="30" t="e">
+        <f t="array" ref="G28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A29" s="30">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B29" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B28" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C28" s="30" t="str">
-        <f t="array" ref="C28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="30" t="str">
-        <f t="array" ref="D28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="30" t="str">
-        <f t="array" ref="E28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="30" t="str">
-        <f t="array" ref="F28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="30" t="str">
-        <f t="array" ref="G28">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A28,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C29" s="30" t="e">
+        <f t="array" ref="C29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="30" t="e">
+        <f t="array" ref="D29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="30" t="e">
+        <f t="array" ref="E29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="30" t="e">
+        <f t="array" ref="F29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="30" t="e">
+        <f t="array" ref="G29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A30" s="30">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="B30" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B29" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C29" s="30" t="str">
-        <f t="array" ref="C29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="30" t="str">
-        <f t="array" ref="D29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="30" t="str">
-        <f t="array" ref="E29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F29" s="30" t="str">
-        <f t="array" ref="F29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="30" t="str">
-        <f t="array" ref="G29">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A29,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C30" s="30" t="e">
+        <f t="array" ref="C30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="30" t="e">
+        <f t="array" ref="D30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="30" t="e">
+        <f t="array" ref="E30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="30" t="e">
+        <f t="array" ref="F30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="30" t="e">
+        <f t="array" ref="G30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A31" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B30" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C30" s="30" t="str">
-        <f t="array" ref="C30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="30" t="str">
-        <f t="array" ref="D30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="30" t="str">
-        <f t="array" ref="E30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F30" s="30" t="str">
-        <f t="array" ref="F30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="30" t="str">
-        <f t="array" ref="G30">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A30,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C31" s="30" t="e">
+        <f t="array" ref="C31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="30" t="e">
+        <f t="array" ref="D31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="30" t="e">
+        <f t="array" ref="E31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F31" s="30" t="e">
+        <f t="array" ref="F31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="30" t="e">
+        <f t="array" ref="G31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A32" s="30">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B31" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="30" t="str">
-        <f t="array" ref="C31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="30" t="str">
-        <f t="array" ref="D31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="30" t="str">
-        <f t="array" ref="E31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F31" s="30" t="str">
-        <f t="array" ref="F31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="30" t="str">
-        <f t="array" ref="G31">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A31,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="30" t="e">
+        <f t="array" ref="C32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="30" t="e">
+        <f t="array" ref="D32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="30" t="e">
+        <f t="array" ref="E32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="30" t="e">
+        <f t="array" ref="F32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="30" t="e">
+        <f t="array" ref="G32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A33" s="30">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="B33" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B32" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C32" s="30" t="str">
-        <f t="array" ref="C32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D32" s="30" t="str">
-        <f t="array" ref="D32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E32" s="30" t="str">
-        <f t="array" ref="E32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32" s="30" t="str">
-        <f t="array" ref="F32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="30" t="str">
-        <f t="array" ref="G32">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A32,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C33" s="30" t="e">
+        <f t="array" ref="C33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="30" t="e">
+        <f t="array" ref="D33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="30" t="e">
+        <f t="array" ref="E33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F33" s="30" t="e">
+        <f t="array" ref="F33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="30" t="e">
+        <f t="array" ref="G33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A34" s="30">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="B34" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="B33" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C33" s="30" t="str">
-        <f t="array" ref="C33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D33" s="30" t="str">
-        <f t="array" ref="D33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E33" s="30" t="str">
-        <f t="array" ref="E33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F33" s="30" t="str">
-        <f t="array" ref="F33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" s="30" t="str">
-        <f t="array" ref="G33">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A33,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C34" s="30" t="e">
+        <f t="array" ref="C34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D34" s="30" t="e">
+        <f t="array" ref="D34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E34" s="30" t="e">
+        <f t="array" ref="E34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F34" s="30" t="e">
+        <f t="array" ref="F34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="30" t="e">
+        <f t="array" ref="G34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A35" s="30">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="B35" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B34" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C34" s="30" t="str">
-        <f t="array" ref="C34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D34" s="30" t="str">
-        <f t="array" ref="D34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E34" s="30" t="str">
-        <f t="array" ref="E34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F34" s="30" t="str">
-        <f t="array" ref="F34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G34" s="30" t="str">
-        <f t="array" ref="G34">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A34,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C35" s="30" t="e">
+        <f t="array" ref="C35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="30" t="e">
+        <f t="array" ref="D35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E35" s="30" t="e">
+        <f t="array" ref="E35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F35" s="30" t="e">
+        <f t="array" ref="F35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="30" t="e">
+        <f t="array" ref="G35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A36" s="30">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B35" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C35" s="30" t="str">
-        <f t="array" ref="C35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D35" s="30" t="str">
-        <f t="array" ref="D35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E35" s="30" t="str">
-        <f t="array" ref="E35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F35" s="30" t="str">
-        <f t="array" ref="F35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" s="30" t="str">
-        <f t="array" ref="G35">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A35,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C36" s="30" t="e">
+        <f t="array" ref="C36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="30" t="e">
+        <f t="array" ref="D36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E36" s="30" t="e">
+        <f t="array" ref="E36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F36" s="30" t="e">
+        <f t="array" ref="F36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G36" s="30" t="e">
+        <f t="array" ref="G36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A37" s="30">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B36" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C36" s="30" t="str">
-        <f t="array" ref="C36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D36" s="30" t="str">
-        <f t="array" ref="D36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E36" s="30" t="str">
-        <f t="array" ref="E36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F36" s="30" t="str">
-        <f t="array" ref="F36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G36" s="30" t="str">
-        <f t="array" ref="G36">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A36,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C37" s="30" t="e">
+        <f t="array" ref="C37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="30" t="e">
+        <f t="array" ref="D37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E37" s="30" t="e">
+        <f t="array" ref="E37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F37" s="30" t="e">
+        <f t="array" ref="F37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G37" s="30" t="e">
+        <f t="array" ref="G37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A38" s="30">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="B38" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B37" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C37" s="30" t="str">
-        <f t="array" ref="C37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D37" s="30" t="str">
-        <f t="array" ref="D37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E37" s="30" t="str">
-        <f t="array" ref="E37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F37" s="30" t="str">
-        <f t="array" ref="F37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G37" s="30" t="str">
-        <f t="array" ref="G37">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A37,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C38" s="30" t="e">
+        <f t="array" ref="C38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,C$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D38" s="30" t="e">
+        <f t="array" ref="D38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,D$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E38" s="30" t="e">
+        <f t="array" ref="E38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,E$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F38" s="30" t="e">
+        <f t="array" ref="F38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,F$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G38" s="30" t="e">
+        <f t="array" ref="G38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,G$6),NA()))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A39" s="30">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="B39" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B38" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C38" s="30" t="str">
-        <f t="array" ref="C38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,C$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D38" s="30" t="str">
-        <f t="array" ref="D38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,D$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E38" s="30" t="str">
-        <f t="array" ref="E38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,E$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F38" s="30" t="str">
-        <f t="array" ref="F38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,F$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G38" s="30" t="str">
-        <f t="array" ref="G38">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A38,G$6),NA()))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="30">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="B39" s="30" t="str">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C39" s="30" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C39" s="30" t="e">
         <f t="array" ref="C39">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A39,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
-      <c r="D39" s="30" t="str">
+      <c r="D39" s="30" t="e">
         <f t="array" ref="D39">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A39,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="30" t="str">
+      <c r="E39" s="30" t="e">
         <f t="array" ref="E39">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A39,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
-      <c r="F39" s="30" t="str">
+      <c r="F39" s="30" t="e">
         <f t="array" ref="F39">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A39,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
-      <c r="G39" s="30" t="str">
+      <c r="G39" s="30" t="e">
         <f t="array" ref="G39">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$I$12,$A39,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
@@ -6876,9 +6902,7 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>